--- a/files/IT_2026.xlsx
+++ b/files/IT_2026.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29704"/>
   <fileSharing readOnlyRecommended="1" userName="ALEXANDRE, LUISA" algorithmName="SHA-512" hashValue="Adf9lh9ReIucWlaaerszpKKTBJ1wqwczuUrc7Pxi/LtOOgKn18lrTzx/X3SDZIrlwuYvDSYptHSGSM48KU7dCQ==" saltValue="KG7kan4hwKZZufg2n+VohQ==" spinCount="100000"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11,7 +11,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:10001_{991245FC-07BC-4015-BDEF-4EED57848F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAN" sheetId="86" r:id="rId1"/>
@@ -80,10 +80,13 @@
     <t>P09</t>
   </si>
   <si>
-    <t>FABIO FILIPE PEREIRA</t>
+    <t>P08</t>
   </si>
   <si>
     <t>P06</t>
+  </si>
+  <si>
+    <t>FABIO FILIPE PEREIRA</t>
   </si>
   <si>
     <t>ARNOLD LUANZAMBI</t>
@@ -153,9 +156,6 @@
   </si>
   <si>
     <t>Falta Injustificada</t>
-  </si>
-  <si>
-    <t>P08</t>
   </si>
   <si>
     <t>08:00-16:00</t>
@@ -799,6 +799,33 @@
     <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -814,31 +841,10 @@
     <xf numFmtId="17" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -852,12 +858,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1589,8 +1589,8 @@
   <dimension ref="A1:AN30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="J33" sqref="J33"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -1603,40 +1603,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
@@ -1647,7 +1647,7 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="48">
+      <c r="A2" s="57">
         <v>46023</v>
       </c>
       <c r="B2" s="23">
@@ -1774,19 +1774,19 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AH2" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AL2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
+      <c r="AH2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AL2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="23" t="str">
         <f t="shared" ref="B3:AF3" si="1">UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>TH</v>
@@ -1968,13 +1968,13 @@
         <v>8</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="5" t="s">
-        <v>9</v>
+      <c r="O4" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>9</v>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1">
       <c r="A5" s="22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>6</v>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>6</v>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="7" spans="1:40" ht="15" customHeight="1">
       <c r="A7" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>8</v>
@@ -2319,16 +2319,16 @@
         <v>8</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N7" s="14" t="s">
         <v>8</v>
@@ -2352,22 +2352,22 @@
         <v>8</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA7" s="14" t="s">
         <v>8</v>
@@ -2376,16 +2376,16 @@
         <v>8</v>
       </c>
       <c r="AC7" s="31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AD7" s="31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE7" s="31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF7" s="31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH7" s="43">
         <v>0</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1">
       <c r="A8" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>8</v>
@@ -2421,19 +2421,19 @@
         <v>8</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>8</v>
@@ -2460,16 +2460,16 @@
         <v>8</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U8" s="14" t="s">
         <v>8</v>
@@ -2502,7 +2502,7 @@
         <v>7</v>
       </c>
       <c r="AE8" s="33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF8" s="31" t="s">
         <v>7</v>
@@ -2532,7 +2532,7 @@
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>6</v>
@@ -2565,16 +2565,16 @@
         <v>8</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P9" s="14" t="s">
         <v>8</v>
@@ -2601,19 +2601,19 @@
         <v>8</v>
       </c>
       <c r="X9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC9" s="14" t="s">
         <v>8</v>
@@ -2622,10 +2622,10 @@
         <v>8</v>
       </c>
       <c r="AE9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH9" s="43">
         <v>5</v>
@@ -2652,16 +2652,16 @@
     </row>
     <row r="10" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>8</v>
@@ -2691,16 +2691,16 @@
         <v>8</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R10" s="14" t="s">
         <v>8</v>
@@ -2733,13 +2733,13 @@
         <v>8</v>
       </c>
       <c r="AB10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE10" s="14" t="s">
         <v>8</v>
@@ -2774,7 +2774,7 @@
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1">
       <c r="A11" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
@@ -2792,19 +2792,19 @@
         <v>8</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L11" s="14" t="s">
         <v>8</v>
@@ -2831,19 +2831,19 @@
         <v>8</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y11" s="14" t="s">
         <v>8</v>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="13" spans="1:40">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="14">
         <f>COUNTIF(B4:B11,"P06")</f>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="O13" s="14">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P13" s="14">
         <f t="shared" si="6"/>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="14" spans="1:40">
       <c r="A14" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="14">
         <f>COUNTIF(B4:B11,"P14")</f>
@@ -3153,96 +3153,96 @@
     <row r="15" spans="1:40" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:40">
       <c r="E16" s="42"/>
-      <c r="F16" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55" t="s">
+      <c r="F16" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="47"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N16" s="24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
       <c r="Q16" s="25"/>
       <c r="R16" s="25"/>
       <c r="S16" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T16" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U16" s="27"/>
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
+      <c r="Z16" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51" t="s">
+      <c r="F17" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="49"/>
       <c r="M17" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O17" s="29"/>
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
       <c r="R17" s="29"/>
       <c r="S17" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U17" s="29"/>
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="57"/>
+      <c r="I18" s="51"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -3263,28 +3263,28 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="57"/>
+      <c r="I19" s="51"/>
       <c r="M19" s="31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N19" s="17" t="s">
         <v>43</v>
@@ -3306,16 +3306,16 @@
     </row>
     <row r="20" spans="5:32">
       <c r="E20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="57"/>
+      <c r="I20" s="51"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -3341,14 +3341,14 @@
       <c r="E21" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="55"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="22" spans="5:32">
       <c r="M22" s="32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N22" s="17" t="s">
         <v>55</v>
@@ -3394,7 +3394,7 @@
     </row>
     <row r="23" spans="5:32">
       <c r="M23" s="33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N23" s="17" t="s">
         <v>57</v>
@@ -3570,12 +3570,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AL2:AN2"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="A1:AF1"/>
@@ -3587,6 +3581,12 @@
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="Z16:AF18"/>
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <conditionalFormatting sqref="B13:AF14">
     <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
@@ -3625,47 +3625,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
       <c r="AJ1" s="12"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="48">
+      <c r="A2" s="57">
         <v>46296</v>
       </c>
       <c r="B2" s="21">
@@ -3792,14 +3792,14 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AH2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
+      <c r="AH2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="21" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>TH</v>
@@ -3939,10 +3939,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>8</v>
@@ -3954,16 +3954,16 @@
         <v>6</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="K4" s="14" t="s">
         <v>8</v>
@@ -3972,19 +3972,19 @@
         <v>8</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="R4" s="14" t="s">
         <v>8</v>
@@ -3993,19 +3993,19 @@
         <v>8</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="Y4" s="14" t="s">
         <v>8</v>
@@ -4014,19 +4014,19 @@
         <v>8</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AF4" s="14" t="s">
         <v>8</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="5" spans="1:36" ht="15" customHeight="1">
       <c r="A5" s="22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
@@ -4156,7 +4156,7 @@
     </row>
     <row r="6" spans="1:36" ht="15" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>9</v>
@@ -4266,16 +4266,16 @@
     </row>
     <row r="7" spans="1:36" ht="15" customHeight="1">
       <c r="A7" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>8</v>
@@ -4302,19 +4302,19 @@
         <v>8</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R7" s="14" t="s">
         <v>8</v>
@@ -4341,16 +4341,16 @@
         <v>8</v>
       </c>
       <c r="Z7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD7" s="14" t="s">
         <v>8</v>
@@ -4376,10 +4376,10 @@
     </row>
     <row r="8" spans="1:36" ht="15" customHeight="1">
       <c r="A8" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>8</v>
@@ -4409,16 +4409,16 @@
         <v>8</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P8" s="14" t="s">
         <v>8</v>
@@ -4445,16 +4445,16 @@
         <v>8</v>
       </c>
       <c r="X8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB8" s="14" t="s">
         <v>8</v>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="9" spans="1:36" ht="15" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>8</v>
@@ -4495,16 +4495,16 @@
         <v>8</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>8</v>
@@ -4531,19 +4531,19 @@
         <v>8</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U9" s="14" t="s">
         <v>8</v>
@@ -4570,16 +4570,16 @@
         <v>8</v>
       </c>
       <c r="AC9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH9" s="6">
         <f>SEP!AI9</f>
@@ -4596,7 +4596,7 @@
     </row>
     <row r="10" spans="1:36" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>11</v>
@@ -4617,16 +4617,16 @@
         <v>8</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L10" s="14" t="s">
         <v>8</v>
@@ -4656,16 +4656,16 @@
         <v>8</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y10" s="14" t="s">
         <v>8</v>
@@ -4707,7 +4707,7 @@
     </row>
     <row r="11" spans="1:36" ht="15" customHeight="1">
       <c r="A11" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
@@ -4722,16 +4722,16 @@
         <v>8</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J11" s="14" t="s">
         <v>8</v>
@@ -4761,16 +4761,16 @@
         <v>8</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W11" s="14" t="s">
         <v>8</v>
@@ -4797,10 +4797,10 @@
         <v>8</v>
       </c>
       <c r="AE11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH11" s="6">
         <f>SEP!AI11</f>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="14">
         <f>COUNTIF(B4:B11,"P06")</f>
@@ -4946,7 +4946,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="14">
         <f>COUNTIF(B4:B11,"P14")</f>
@@ -5076,96 +5076,96 @@
     <row r="15" spans="1:36" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:36">
       <c r="E16" s="42"/>
-      <c r="F16" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55" t="s">
+      <c r="F16" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="47"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N16" s="24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
       <c r="Q16" s="25"/>
       <c r="R16" s="25"/>
       <c r="S16" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T16" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U16" s="27"/>
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
+      <c r="Z16" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51" t="s">
+      <c r="F17" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="49"/>
       <c r="M17" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O17" s="29"/>
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
       <c r="R17" s="29"/>
       <c r="S17" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U17" s="29"/>
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="57"/>
+      <c r="I18" s="51"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -5186,28 +5186,28 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="57"/>
+      <c r="I19" s="51"/>
       <c r="M19" s="31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N19" s="17" t="s">
         <v>43</v>
@@ -5229,16 +5229,16 @@
     </row>
     <row r="20" spans="5:32">
       <c r="E20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="57"/>
+      <c r="I20" s="51"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -5264,14 +5264,14 @@
       <c r="E21" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="55"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -5295,7 +5295,7 @@
     </row>
     <row r="22" spans="5:32">
       <c r="M22" s="32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N22" s="17" t="s">
         <v>55</v>
@@ -5317,7 +5317,7 @@
     </row>
     <row r="23" spans="5:32">
       <c r="M23" s="33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N23" s="17" t="s">
         <v>57</v>
@@ -5493,12 +5493,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -5509,6 +5503,12 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:E3 G2:AF3">
     <cfRule type="expression" dxfId="8" priority="3">
@@ -5547,46 +5547,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
       <c r="AF1" s="12"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
     </row>
     <row r="2" spans="1:35" ht="15" customHeight="1">
-      <c r="A2" s="48">
+      <c r="A2" s="57">
         <v>46327</v>
       </c>
       <c r="B2" s="23">
@@ -5709,14 +5709,14 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AG2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
+      <c r="AG2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="23" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>SU</v>
@@ -5855,19 +5855,19 @@
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>8</v>
@@ -5876,19 +5876,19 @@
         <v>8</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="O4" s="14" t="s">
         <v>8</v>
@@ -5897,19 +5897,19 @@
         <v>8</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="V4" s="14" t="s">
         <v>8</v>
@@ -5918,19 +5918,19 @@
         <v>8</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AC4" s="14" t="s">
         <v>8</v>
@@ -5939,7 +5939,7 @@
         <v>8</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AG4" s="6">
         <f>OCT!AJ4</f>
@@ -5956,7 +5956,7 @@
     </row>
     <row r="5" spans="1:35" ht="15" customHeight="1">
       <c r="A5" s="22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>8</v>
@@ -6063,7 +6063,7 @@
     </row>
     <row r="6" spans="1:35" ht="15" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>8</v>
@@ -6170,7 +6170,7 @@
     </row>
     <row r="7" spans="1:35" ht="15" customHeight="1">
       <c r="A7" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>6</v>
@@ -6188,16 +6188,16 @@
         <v>8</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>8</v>
@@ -6227,16 +6227,16 @@
         <v>8</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X7" s="14" t="s">
         <v>8</v>
@@ -6277,7 +6277,7 @@
     </row>
     <row r="8" spans="1:35" ht="15" customHeight="1">
       <c r="A8" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>11</v>
@@ -6292,16 +6292,16 @@
         <v>8</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J8" s="14" t="s">
         <v>8</v>
@@ -6328,16 +6328,16 @@
         <v>8</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V8" s="14" t="s">
         <v>8</v>
@@ -6367,7 +6367,7 @@
         <v>8</v>
       </c>
       <c r="AE8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG8" s="6">
         <f>OCT!AJ8</f>
@@ -6384,7 +6384,7 @@
     </row>
     <row r="9" spans="1:35" ht="15" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>8</v>
@@ -6411,16 +6411,16 @@
         <v>8</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N9" s="14" t="s">
         <v>8</v>
@@ -6450,16 +6450,16 @@
         <v>8</v>
       </c>
       <c r="W9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA9" s="14" t="s">
         <v>8</v>
@@ -6491,22 +6491,22 @@
     </row>
     <row r="10" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>8</v>
@@ -6533,16 +6533,16 @@
         <v>8</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S10" s="14" t="s">
         <v>8</v>
@@ -6572,16 +6572,16 @@
         <v>8</v>
       </c>
       <c r="AB10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF10" s="13"/>
       <c r="AG10" s="6">
@@ -6599,16 +6599,16 @@
     </row>
     <row r="11" spans="1:35" ht="15" customHeight="1">
       <c r="A11" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>8</v>
@@ -6635,19 +6635,19 @@
         <v>8</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R11" s="14" t="s">
         <v>8</v>
@@ -6674,16 +6674,16 @@
         <v>8</v>
       </c>
       <c r="Z11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD11" s="14" t="s">
         <v>8</v>
@@ -6706,7 +6706,7 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="14">
         <f>COUNTIF(B4:B11,"P06")</f>
@@ -6831,7 +6831,7 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="14">
         <f>COUNTIF(B4:B11,"P14")</f>
@@ -6957,96 +6957,96 @@
     <row r="15" spans="1:35" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:35">
       <c r="E16" s="42"/>
-      <c r="F16" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55" t="s">
+      <c r="F16" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="47"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N16" s="24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
       <c r="Q16" s="25"/>
       <c r="R16" s="25"/>
       <c r="S16" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T16" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U16" s="27"/>
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
+      <c r="Z16" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51" t="s">
+      <c r="F17" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="49"/>
       <c r="M17" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O17" s="29"/>
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
       <c r="R17" s="29"/>
       <c r="S17" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U17" s="29"/>
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="57"/>
+      <c r="I18" s="51"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -7067,28 +7067,28 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="57"/>
+      <c r="I19" s="51"/>
       <c r="M19" s="31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N19" s="17" t="s">
         <v>43</v>
@@ -7110,16 +7110,16 @@
     </row>
     <row r="20" spans="5:32">
       <c r="E20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="57"/>
+      <c r="I20" s="51"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -7145,14 +7145,14 @@
       <c r="E21" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="55"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -7176,7 +7176,7 @@
     </row>
     <row r="22" spans="5:32">
       <c r="M22" s="32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N22" s="17" t="s">
         <v>55</v>
@@ -7198,7 +7198,7 @@
     </row>
     <row r="23" spans="5:32">
       <c r="M23" s="33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N23" s="17" t="s">
         <v>57</v>
@@ -7374,12 +7374,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -7390,6 +7384,12 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B13:AE14">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -7428,47 +7428,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
       <c r="AJ1" s="12"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="48">
+      <c r="A2" s="57">
         <v>46357</v>
       </c>
       <c r="B2" s="23">
@@ -7595,14 +7595,14 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AH2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
+      <c r="AH2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="23" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>TU</v>
@@ -7745,13 +7745,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>8</v>
@@ -7760,19 +7760,19 @@
         <v>8</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="I4" s="23" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="M4" s="14" t="s">
         <v>8</v>
@@ -7781,19 +7781,19 @@
         <v>8</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="T4" s="14" t="s">
         <v>8</v>
@@ -7802,16 +7802,16 @@
         <v>8</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="Z4" s="23" t="s">
         <v>6</v>
@@ -7823,16 +7823,16 @@
         <v>8</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AH4" s="6">
         <f>NOV!AI4</f>
@@ -7849,7 +7849,7 @@
     </row>
     <row r="5" spans="1:36" ht="15" customHeight="1">
       <c r="A5" s="22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>6</v>
@@ -7959,7 +7959,7 @@
     </row>
     <row r="6" spans="1:36" ht="15" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>6</v>
@@ -8069,22 +8069,22 @@
     </row>
     <row r="7" spans="1:36" ht="15" customHeight="1">
       <c r="A7" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>8</v>
@@ -8111,19 +8111,19 @@
         <v>8</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T7" s="14" t="s">
         <v>8</v>
@@ -8150,16 +8150,16 @@
         <v>8</v>
       </c>
       <c r="AB7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF7" s="14" t="s">
         <v>8</v>
@@ -8179,16 +8179,16 @@
     </row>
     <row r="8" spans="1:36" ht="15" customHeight="1">
       <c r="A8" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>8</v>
@@ -8215,16 +8215,16 @@
         <v>8</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q8" s="14" t="s">
         <v>8</v>
@@ -8254,16 +8254,16 @@
         <v>8</v>
       </c>
       <c r="Z8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD8" s="14" t="s">
         <v>8</v>
@@ -8289,7 +8289,7 @@
     </row>
     <row r="9" spans="1:36" ht="15" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>11</v>
@@ -8301,16 +8301,16 @@
         <v>8</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>8</v>
@@ -8319,16 +8319,16 @@
         <v>8</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O9" s="14" t="s">
         <v>8</v>
@@ -8355,13 +8355,13 @@
         <v>8</v>
       </c>
       <c r="W9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z9" s="23" t="s">
         <v>6</v>
@@ -8399,7 +8399,7 @@
     </row>
     <row r="10" spans="1:36" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>8</v>
@@ -8450,16 +8450,16 @@
         <v>8</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V10" s="14" t="s">
         <v>8</v>
@@ -8486,13 +8486,13 @@
         <v>8</v>
       </c>
       <c r="AD10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG10" s="13"/>
       <c r="AH10" s="6">
@@ -8510,7 +8510,7 @@
     </row>
     <row r="11" spans="1:36" ht="15" customHeight="1">
       <c r="A11" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>6</v>
@@ -8534,16 +8534,16 @@
         <v>8</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K11" s="33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M11" s="14" t="s">
         <v>8</v>
@@ -8573,16 +8573,16 @@
         <v>8</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z11" s="14" t="s">
         <v>8</v>
@@ -8620,7 +8620,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="14">
         <f>COUNTIF(B4:B11,"P06")</f>
@@ -8749,7 +8749,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="14">
         <f>COUNTIF(B4:B11,"P14")</f>
@@ -8879,96 +8879,96 @@
     <row r="15" spans="1:36" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:36">
       <c r="E16" s="42"/>
-      <c r="F16" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55" t="s">
+      <c r="F16" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="47"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N16" s="24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
       <c r="Q16" s="25"/>
       <c r="R16" s="25"/>
       <c r="S16" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T16" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U16" s="27"/>
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
+      <c r="Z16" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51" t="s">
+      <c r="F17" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="49"/>
       <c r="M17" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O17" s="29"/>
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
       <c r="R17" s="29"/>
       <c r="S17" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U17" s="29"/>
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="57"/>
+      <c r="I18" s="51"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -8989,28 +8989,28 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="57"/>
+      <c r="I19" s="51"/>
       <c r="M19" s="31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N19" s="17" t="s">
         <v>43</v>
@@ -9032,16 +9032,16 @@
     </row>
     <row r="20" spans="5:32">
       <c r="E20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="57"/>
+      <c r="I20" s="51"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -9067,14 +9067,14 @@
       <c r="E21" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="55"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -9098,7 +9098,7 @@
     </row>
     <row r="22" spans="5:32">
       <c r="M22" s="32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N22" s="17" t="s">
         <v>55</v>
@@ -9120,7 +9120,7 @@
     </row>
     <row r="23" spans="5:32">
       <c r="M23" s="33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N23" s="17" t="s">
         <v>57</v>
@@ -9296,12 +9296,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -9312,6 +9306,12 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B13:AF14">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -9350,37 +9350,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
       <c r="AD1" s="12"/>
       <c r="AE1" s="12"/>
       <c r="AF1" s="12"/>
@@ -9391,7 +9391,7 @@
       <c r="AK1" s="12"/>
     </row>
     <row r="2" spans="1:37" ht="15" customHeight="1">
-      <c r="A2" s="48">
+      <c r="A2" s="57">
         <v>46054</v>
       </c>
       <c r="B2" s="21">
@@ -9506,19 +9506,19 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="AE2" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="50"/>
-      <c r="AI2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
+      <c r="AE2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AI2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
     </row>
     <row r="3" spans="1:37" ht="15" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="21" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>SU</v>
@@ -9765,7 +9765,7 @@
     </row>
     <row r="5" spans="1:37" ht="15" customHeight="1">
       <c r="A5" s="22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>8</v>
@@ -9878,7 +9878,7 @@
     </row>
     <row r="6" spans="1:37" ht="15" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>8</v>
@@ -9991,7 +9991,7 @@
     </row>
     <row r="7" spans="1:37" ht="15" customHeight="1">
       <c r="A7" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>8</v>
@@ -10000,16 +10000,16 @@
         <v>8</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -10036,19 +10036,19 @@
         <v>8</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U7" s="6" t="s">
         <v>8</v>
@@ -10075,7 +10075,7 @@
         <v>8</v>
       </c>
       <c r="AC7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE7" s="6">
         <f>JAN!AJ7</f>
@@ -10104,7 +10104,7 @@
     </row>
     <row r="8" spans="1:37" ht="15" customHeight="1">
       <c r="A8" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="31" t="s">
         <v>7</v>
@@ -10158,13 +10158,13 @@
         <v>6</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V8" s="6" t="s">
         <v>8</v>
@@ -10217,13 +10217,13 @@
     </row>
     <row r="9" spans="1:37" ht="15" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>8</v>
@@ -10250,16 +10250,16 @@
         <v>8</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>8</v>
@@ -10289,16 +10289,16 @@
         <v>8</v>
       </c>
       <c r="Y9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC9" s="6" t="s">
         <v>8</v>
@@ -10330,7 +10330,7 @@
     </row>
     <row r="10" spans="1:37" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>11</v>
@@ -10351,19 +10351,19 @@
         <v>8</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>8</v>
@@ -10390,16 +10390,16 @@
         <v>8</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y10" s="6" t="s">
         <v>8</v>
@@ -10445,19 +10445,19 @@
     </row>
     <row r="11" spans="1:37" ht="15" customHeight="1">
       <c r="A11" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>8</v>
@@ -10520,16 +10520,16 @@
         <v>8</v>
       </c>
       <c r="Z11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE11" s="6">
         <f>JAN!AJ11</f>
@@ -10558,7 +10558,7 @@
     </row>
     <row r="13" spans="1:37">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="14">
         <f>COUNTIF(B4:B11,"P06")</f>
@@ -10675,7 +10675,7 @@
     </row>
     <row r="14" spans="1:37">
       <c r="A14" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="14">
         <f>COUNTIF(B4:B11,"P14")</f>
@@ -10793,96 +10793,96 @@
     <row r="15" spans="1:37" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:37">
       <c r="E16" s="42"/>
-      <c r="F16" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55" t="s">
+      <c r="F16" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="47"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N16" s="24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
       <c r="Q16" s="25"/>
       <c r="R16" s="25"/>
       <c r="S16" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T16" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U16" s="27"/>
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
+      <c r="Z16" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51" t="s">
+      <c r="F17" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="49"/>
       <c r="M17" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O17" s="29"/>
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
       <c r="R17" s="29"/>
       <c r="S17" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U17" s="29"/>
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="57"/>
+      <c r="I18" s="51"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -10903,28 +10903,28 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="57"/>
+      <c r="I19" s="51"/>
       <c r="M19" s="31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N19" s="17" t="s">
         <v>43</v>
@@ -10946,16 +10946,16 @@
     </row>
     <row r="20" spans="5:32">
       <c r="E20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="57"/>
+      <c r="I20" s="51"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -10981,14 +10981,14 @@
       <c r="E21" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="55"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -11012,7 +11012,7 @@
     </row>
     <row r="22" spans="5:32">
       <c r="M22" s="32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N22" s="17" t="s">
         <v>55</v>
@@ -11034,7 +11034,7 @@
     </row>
     <row r="23" spans="5:32">
       <c r="M23" s="33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N23" s="17" t="s">
         <v>57</v>
@@ -11210,13 +11210,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -11227,6 +11220,13 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:Q3 S2:AC3">
     <cfRule type="expression" dxfId="32" priority="5">
@@ -11265,40 +11265,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
@@ -11309,7 +11309,7 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="48">
+      <c r="A2" s="57">
         <v>46082</v>
       </c>
       <c r="B2" s="21">
@@ -11436,19 +11436,19 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AH2" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AL2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
+      <c r="AH2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AL2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="21" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>SU</v>
@@ -11716,7 +11716,7 @@
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1">
       <c r="A5" s="22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>8</v>
@@ -11838,7 +11838,7 @@
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>8</v>
@@ -11960,19 +11960,19 @@
     </row>
     <row r="7" spans="1:40" ht="15" customHeight="1">
       <c r="A7" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>8</v>
@@ -11999,16 +11999,16 @@
         <v>8</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R7" s="14" t="s">
         <v>8</v>
@@ -12038,16 +12038,16 @@
         <v>8</v>
       </c>
       <c r="AA7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE7" s="14" t="s">
         <v>8</v>
@@ -12082,22 +12082,22 @@
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1">
       <c r="A8" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>8</v>
@@ -12124,19 +12124,19 @@
         <v>8</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T8" s="14" t="s">
         <v>8</v>
@@ -12163,16 +12163,16 @@
         <v>8</v>
       </c>
       <c r="AB8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF8" s="14" t="s">
         <v>8</v>
@@ -12204,7 +12204,7 @@
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>8</v>
@@ -12231,16 +12231,16 @@
         <v>8</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N9" s="14" t="s">
         <v>8</v>
@@ -12270,16 +12270,16 @@
         <v>8</v>
       </c>
       <c r="W9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA9" s="14" t="s">
         <v>8</v>
@@ -12326,7 +12326,7 @@
     </row>
     <row r="10" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>11</v>
@@ -12341,16 +12341,16 @@
         <v>8</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>8</v>
@@ -12377,19 +12377,19 @@
         <v>8</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W10" s="14" t="s">
         <v>8</v>
@@ -12416,10 +12416,10 @@
         <v>8</v>
       </c>
       <c r="AE10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG10" s="13"/>
       <c r="AH10" s="6">
@@ -12450,10 +12450,10 @@
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1">
       <c r="A11" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>8</v>
@@ -12480,16 +12480,16 @@
         <v>8</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O11" s="14" t="s">
         <v>8</v>
@@ -12519,16 +12519,16 @@
         <v>8</v>
       </c>
       <c r="X11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB11" s="14" t="s">
         <v>8</v>
@@ -12572,7 +12572,7 @@
     </row>
     <row r="13" spans="1:40">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="14">
         <f>COUNTIF(B4:B11,"P06")</f>
@@ -12701,7 +12701,7 @@
     </row>
     <row r="14" spans="1:40">
       <c r="A14" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="14">
         <f>COUNTIF(B4:B11,"P14")</f>
@@ -12831,96 +12831,96 @@
     <row r="15" spans="1:40" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:40">
       <c r="E16" s="42"/>
-      <c r="F16" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55" t="s">
+      <c r="F16" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="47"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N16" s="24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
       <c r="Q16" s="25"/>
       <c r="R16" s="25"/>
       <c r="S16" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T16" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U16" s="27"/>
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
+      <c r="Z16" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51" t="s">
+      <c r="F17" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="49"/>
       <c r="M17" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O17" s="29"/>
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
       <c r="R17" s="29"/>
       <c r="S17" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U17" s="29"/>
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="57"/>
+      <c r="I18" s="51"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -12941,28 +12941,28 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="57"/>
+      <c r="I19" s="51"/>
       <c r="M19" s="31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N19" s="17" t="s">
         <v>43</v>
@@ -12984,16 +12984,16 @@
     </row>
     <row r="20" spans="5:32">
       <c r="E20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="57"/>
+      <c r="I20" s="51"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -13019,14 +13019,14 @@
       <c r="E21" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="55"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -13050,7 +13050,7 @@
     </row>
     <row r="22" spans="5:32">
       <c r="M22" s="32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N22" s="17" t="s">
         <v>55</v>
@@ -13072,7 +13072,7 @@
     </row>
     <row r="23" spans="5:32">
       <c r="M23" s="33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N23" s="17" t="s">
         <v>57</v>
@@ -13248,13 +13248,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="AL2:AN2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -13265,6 +13258,13 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:AF3">
     <cfRule type="expression" dxfId="29" priority="5">
@@ -13303,39 +13303,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
       <c r="AF1" s="12"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
@@ -13346,7 +13346,7 @@
       <c r="AM1" s="12"/>
     </row>
     <row r="2" spans="1:39" ht="15" customHeight="1">
-      <c r="A2" s="48">
+      <c r="A2" s="57">
         <v>46113</v>
       </c>
       <c r="B2" s="21">
@@ -13469,19 +13469,19 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AG2" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
-      <c r="AK2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
+      <c r="AG2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AK2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
     </row>
     <row r="3" spans="1:39" ht="15" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="21" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>WE</v>
@@ -13626,10 +13626,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>6</v>
@@ -13641,19 +13641,19 @@
         <v>8</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="L4" s="14" t="s">
         <v>8</v>
@@ -13662,19 +13662,19 @@
         <v>8</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="S4" s="14" t="s">
         <v>8</v>
@@ -13683,19 +13683,19 @@
         <v>8</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="Y4" s="33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z4" s="14" t="s">
         <v>8</v>
@@ -13704,16 +13704,16 @@
         <v>8</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AG4" s="6">
         <f>MAR!AJ4</f>
@@ -13742,7 +13742,7 @@
     </row>
     <row r="5" spans="1:39" ht="15" customHeight="1">
       <c r="A5" s="22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
@@ -13861,7 +13861,7 @@
     </row>
     <row r="6" spans="1:39" ht="15" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="31" t="s">
         <v>7</v>
@@ -13888,7 +13888,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K6" s="31" t="s">
         <v>7</v>
@@ -13906,13 +13906,13 @@
         <v>7</v>
       </c>
       <c r="P6" s="31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q6" s="31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R6" s="31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S6" s="14" t="s">
         <v>8</v>
@@ -13980,7 +13980,7 @@
     </row>
     <row r="7" spans="1:39" ht="15" customHeight="1">
       <c r="A7" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>11</v>
@@ -14001,19 +14001,19 @@
         <v>8</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M7" s="14" t="s">
         <v>8</v>
@@ -14040,19 +14040,19 @@
         <v>8</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z7" s="14" t="s">
         <v>8</v>
@@ -14099,22 +14099,22 @@
     </row>
     <row r="8" spans="1:39" ht="15" customHeight="1">
       <c r="A8" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>8</v>
@@ -14144,16 +14144,16 @@
         <v>8</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T8" s="14" t="s">
         <v>8</v>
@@ -14180,16 +14180,16 @@
         <v>8</v>
       </c>
       <c r="AB8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG8" s="6">
         <f>MAR!AJ8</f>
@@ -14218,7 +14218,7 @@
     </row>
     <row r="9" spans="1:39" ht="15" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>8</v>
@@ -14248,16 +14248,16 @@
         <v>8</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O9" s="14" t="s">
         <v>8</v>
@@ -14284,13 +14284,13 @@
         <v>8</v>
       </c>
       <c r="W9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z9" s="23" t="s">
         <v>6</v>
@@ -14337,13 +14337,13 @@
     </row>
     <row r="10" spans="1:39" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>6</v>
@@ -14373,16 +14373,16 @@
         <v>8</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="14" t="s">
         <v>8</v>
@@ -14412,16 +14412,16 @@
         <v>8</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD10" s="14" t="s">
         <v>8</v>
@@ -14458,7 +14458,7 @@
     </row>
     <row r="11" spans="1:39" ht="15" customHeight="1">
       <c r="A11" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
@@ -14476,13 +14476,13 @@
         <v>6</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J11" s="14" t="s">
         <v>8</v>
@@ -14509,16 +14509,16 @@
         <v>8</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V11" s="14" t="s">
         <v>8</v>
@@ -14548,7 +14548,7 @@
         <v>8</v>
       </c>
       <c r="AE11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG11" s="6">
         <f>MAR!AJ11</f>
@@ -14577,7 +14577,7 @@
     </row>
     <row r="13" spans="1:39">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="14">
         <f>COUNTIF(B4:B11,"P06")</f>
@@ -14702,7 +14702,7 @@
     </row>
     <row r="14" spans="1:39">
       <c r="A14" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="14">
         <f>COUNTIF(B4:B11,"P14")</f>
@@ -14828,96 +14828,96 @@
     <row r="15" spans="1:39" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:39">
       <c r="E16" s="42"/>
-      <c r="F16" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55" t="s">
+      <c r="F16" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="47"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N16" s="24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
       <c r="Q16" s="25"/>
       <c r="R16" s="25"/>
       <c r="S16" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T16" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U16" s="27"/>
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
+      <c r="Z16" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51" t="s">
+      <c r="F17" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="49"/>
       <c r="M17" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O17" s="29"/>
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
       <c r="R17" s="29"/>
       <c r="S17" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U17" s="29"/>
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="57"/>
+      <c r="I18" s="51"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -14938,28 +14938,28 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="57"/>
+      <c r="I19" s="51"/>
       <c r="M19" s="31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N19" s="17" t="s">
         <v>43</v>
@@ -14981,16 +14981,16 @@
     </row>
     <row r="20" spans="5:32">
       <c r="E20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="57"/>
+      <c r="I20" s="51"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -15016,14 +15016,14 @@
       <c r="E21" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="55"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -15047,7 +15047,7 @@
     </row>
     <row r="22" spans="5:32">
       <c r="M22" s="32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N22" s="17" t="s">
         <v>55</v>
@@ -15069,7 +15069,7 @@
     </row>
     <row r="23" spans="5:32">
       <c r="M23" s="33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N23" s="17" t="s">
         <v>57</v>
@@ -15245,13 +15245,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -15262,6 +15255,13 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:C3 E2:E3 G2:Y3 AA2:AE3">
     <cfRule type="expression" dxfId="26" priority="3">
@@ -15300,47 +15300,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
       <c r="AJ1" s="12"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="48">
+      <c r="A2" s="57">
         <v>46143</v>
       </c>
       <c r="B2" s="23">
@@ -15467,14 +15467,14 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AH2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
+      <c r="AH2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="23" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>FR</v>
@@ -15623,19 +15623,19 @@
         <v>8</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>8</v>
@@ -15644,19 +15644,19 @@
         <v>8</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>8</v>
@@ -15665,19 +15665,19 @@
         <v>8</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="X4" s="6" t="s">
         <v>8</v>
@@ -15686,19 +15686,19 @@
         <v>8</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AE4" s="6" t="s">
         <v>8</v>
@@ -15721,7 +15721,7 @@
     </row>
     <row r="5" spans="1:36" ht="15" customHeight="1">
       <c r="A5" s="22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>6</v>
@@ -15831,7 +15831,7 @@
     </row>
     <row r="6" spans="1:36" ht="15" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>6</v>
@@ -15941,7 +15941,7 @@
     </row>
     <row r="7" spans="1:36" ht="15" customHeight="1">
       <c r="A7" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>8</v>
@@ -15950,16 +15950,16 @@
         <v>8</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -15986,19 +15986,19 @@
         <v>8</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U7" s="6" t="s">
         <v>8</v>
@@ -16025,16 +16025,16 @@
         <v>8</v>
       </c>
       <c r="AC7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH7" s="6">
         <f>APR!AM7</f>
@@ -16051,7 +16051,7 @@
     </row>
     <row r="8" spans="1:36" ht="15" customHeight="1">
       <c r="A8" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>8</v>
@@ -16081,16 +16081,16 @@
         <v>8</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>8</v>
@@ -16120,16 +16120,16 @@
         <v>8</v>
       </c>
       <c r="X8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB8" s="6" t="s">
         <v>8</v>
@@ -16161,7 +16161,7 @@
     </row>
     <row r="9" spans="1:36" ht="15" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>11</v>
@@ -16176,16 +16176,16 @@
         <v>8</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>8</v>
@@ -16215,16 +16215,16 @@
         <v>8</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W9" s="6" t="s">
         <v>8</v>
@@ -16251,10 +16251,10 @@
         <v>8</v>
       </c>
       <c r="AE9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH9" s="6">
         <f>APR!AM9</f>
@@ -16271,7 +16271,7 @@
     </row>
     <row r="10" spans="1:36" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>6</v>
@@ -16292,19 +16292,19 @@
         <v>8</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>8</v>
@@ -16331,16 +16331,16 @@
         <v>8</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y10" s="6" t="s">
         <v>8</v>
@@ -16382,16 +16382,16 @@
     </row>
     <row r="11" spans="1:36" ht="15" customHeight="1">
       <c r="A11" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>8</v>
@@ -16418,19 +16418,19 @@
         <v>8</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R11" s="6" t="s">
         <v>8</v>
@@ -16457,19 +16457,19 @@
         <v>8</v>
       </c>
       <c r="Z11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE11" s="6" t="s">
         <v>8</v>
@@ -16492,7 +16492,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="14">
         <f>COUNTIF(B4:B11,"P06")</f>
@@ -16621,7 +16621,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="14">
         <f>COUNTIF(B4:B11,"P14")</f>
@@ -16751,96 +16751,96 @@
     <row r="15" spans="1:36" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:36">
       <c r="E16" s="42"/>
-      <c r="F16" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55" t="s">
+      <c r="F16" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="47"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N16" s="24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
       <c r="Q16" s="25"/>
       <c r="R16" s="25"/>
       <c r="S16" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T16" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U16" s="27"/>
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
+      <c r="Z16" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51" t="s">
+      <c r="F17" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="49"/>
       <c r="M17" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O17" s="29"/>
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
       <c r="R17" s="29"/>
       <c r="S17" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U17" s="29"/>
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="57"/>
+      <c r="I18" s="51"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -16861,28 +16861,28 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="57"/>
+      <c r="I19" s="51"/>
       <c r="M19" s="31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N19" s="17" t="s">
         <v>43</v>
@@ -16904,16 +16904,16 @@
     </row>
     <row r="20" spans="5:32">
       <c r="E20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="57"/>
+      <c r="I20" s="51"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -16939,14 +16939,14 @@
       <c r="E21" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="55"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -16970,7 +16970,7 @@
     </row>
     <row r="22" spans="5:32">
       <c r="M22" s="32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N22" s="17" t="s">
         <v>55</v>
@@ -16992,7 +16992,7 @@
     </row>
     <row r="23" spans="5:32">
       <c r="M23" s="33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N23" s="17" t="s">
         <v>57</v>
@@ -17168,12 +17168,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -17184,6 +17178,12 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B13:AF14">
     <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
@@ -17222,46 +17222,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
       <c r="AF1" s="12"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
     </row>
     <row r="2" spans="1:35" ht="15" customHeight="1">
-      <c r="A2" s="48">
+      <c r="A2" s="57">
         <v>46174</v>
       </c>
       <c r="B2" s="21">
@@ -17384,14 +17384,14 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AG2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
+      <c r="AG2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="21" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>MO</v>
@@ -17527,19 +17527,19 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E4" s="23" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>8</v>
@@ -17548,19 +17548,19 @@
         <v>8</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="K4" s="23" t="s">
         <v>6</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="N4" s="14" t="s">
         <v>8</v>
@@ -17569,19 +17569,19 @@
         <v>8</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="U4" s="14" t="s">
         <v>8</v>
@@ -17590,19 +17590,19 @@
         <v>8</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="Y4" s="23" t="s">
         <v>6</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AB4" s="14" t="s">
         <v>8</v>
@@ -17611,10 +17611,10 @@
         <v>8</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AG4" s="6">
         <f>MAY!AJ4</f>
@@ -17631,7 +17631,7 @@
     </row>
     <row r="5" spans="1:35" ht="15" customHeight="1">
       <c r="A5" s="22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
@@ -17738,7 +17738,7 @@
     </row>
     <row r="6" spans="1:35" ht="15" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>9</v>
@@ -17845,7 +17845,7 @@
     </row>
     <row r="7" spans="1:35" ht="15" customHeight="1">
       <c r="A7" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>8</v>
@@ -17854,16 +17854,16 @@
         <v>8</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>8</v>
@@ -17890,19 +17890,19 @@
         <v>8</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U7" s="14" t="s">
         <v>8</v>
@@ -17929,13 +17929,13 @@
         <v>8</v>
       </c>
       <c r="AC7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG7" s="6">
         <f>MAY!AJ7</f>
@@ -17952,7 +17952,7 @@
     </row>
     <row r="8" spans="1:35" ht="15" customHeight="1">
       <c r="A8" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>11</v>
@@ -17967,13 +17967,13 @@
         <v>6</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>8</v>
@@ -18000,19 +18000,19 @@
         <v>8</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V8" s="14" t="s">
         <v>8</v>
@@ -18039,10 +18039,10 @@
         <v>8</v>
       </c>
       <c r="AD8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG8" s="6">
         <f>MAY!AJ8</f>
@@ -18059,16 +18059,16 @@
     </row>
     <row r="9" spans="1:35" ht="15" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>8</v>
@@ -18095,16 +18095,16 @@
         <v>8</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="14" t="s">
         <v>8</v>
@@ -18134,16 +18134,16 @@
         <v>8</v>
       </c>
       <c r="Z9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD9" s="14" t="s">
         <v>8</v>
@@ -18166,7 +18166,7 @@
     </row>
     <row r="10" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>8</v>
@@ -18190,16 +18190,16 @@
         <v>8</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M10" s="14" t="s">
         <v>8</v>
@@ -18229,16 +18229,16 @@
         <v>8</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z10" s="14" t="s">
         <v>8</v>
@@ -18274,7 +18274,7 @@
     </row>
     <row r="11" spans="1:35" ht="15" customHeight="1">
       <c r="A11" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
@@ -18295,13 +18295,13 @@
         <v>8</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K11" s="23" t="s">
         <v>6</v>
@@ -18334,16 +18334,16 @@
         <v>8</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y11" s="14" t="s">
         <v>8</v>
@@ -18381,7 +18381,7 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="14">
         <f>COUNTIF(B4:B11,"P06")</f>
@@ -18506,7 +18506,7 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="14">
         <f>COUNTIF(B4:B11,"P14")</f>
@@ -18632,96 +18632,96 @@
     <row r="15" spans="1:35" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:35">
       <c r="E16" s="42"/>
-      <c r="F16" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55" t="s">
+      <c r="F16" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="47"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N16" s="24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
       <c r="Q16" s="25"/>
       <c r="R16" s="25"/>
       <c r="S16" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T16" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U16" s="27"/>
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
+      <c r="Z16" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51" t="s">
+      <c r="F17" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="49"/>
       <c r="M17" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O17" s="29"/>
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
       <c r="R17" s="29"/>
       <c r="S17" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U17" s="29"/>
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="57"/>
+      <c r="I18" s="51"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -18742,28 +18742,28 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="57"/>
+      <c r="I19" s="51"/>
       <c r="M19" s="31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N19" s="17" t="s">
         <v>43</v>
@@ -18785,16 +18785,16 @@
     </row>
     <row r="20" spans="5:32">
       <c r="E20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="57"/>
+      <c r="I20" s="51"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -18820,14 +18820,14 @@
       <c r="E21" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="55"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -18851,7 +18851,7 @@
     </row>
     <row r="22" spans="5:32">
       <c r="M22" s="32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N22" s="17" t="s">
         <v>55</v>
@@ -18873,7 +18873,7 @@
     </row>
     <row r="23" spans="5:32">
       <c r="M23" s="33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N23" s="17" t="s">
         <v>57</v>
@@ -19049,12 +19049,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -19065,6 +19059,12 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:D3 F2:J3 L2:X3 Z2:AE3">
     <cfRule type="expression" dxfId="20" priority="3">
@@ -19103,47 +19103,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
       <c r="AJ1" s="12"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="48">
+      <c r="A2" s="57">
         <v>46204</v>
       </c>
       <c r="B2" s="21">
@@ -19270,14 +19270,14 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AH2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
+      <c r="AH2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="21" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>WE</v>
@@ -19417,13 +19417,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>8</v>
@@ -19432,19 +19432,19 @@
         <v>8</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="L4" s="14" t="s">
         <v>8</v>
@@ -19453,19 +19453,19 @@
         <v>8</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="S4" s="14" t="s">
         <v>8</v>
@@ -19474,19 +19474,19 @@
         <v>8</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="Z4" s="14" t="s">
         <v>8</v>
@@ -19495,19 +19495,19 @@
         <v>8</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AH4" s="6">
         <f>JUN!AI4</f>
@@ -19524,7 +19524,7 @@
     </row>
     <row r="5" spans="1:36" ht="15" customHeight="1">
       <c r="A5" s="22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
@@ -19634,7 +19634,7 @@
     </row>
     <row r="6" spans="1:36" ht="15" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>9</v>
@@ -19744,10 +19744,10 @@
     </row>
     <row r="7" spans="1:36" ht="15" customHeight="1">
       <c r="A7" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>8</v>
@@ -19774,19 +19774,19 @@
         <v>8</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P7" s="14" t="s">
         <v>8</v>
@@ -19813,16 +19813,16 @@
         <v>8</v>
       </c>
       <c r="X7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB7" s="14" t="s">
         <v>8</v>
@@ -19854,16 +19854,16 @@
     </row>
     <row r="8" spans="1:36" ht="15" customHeight="1">
       <c r="A8" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>8</v>
@@ -19893,16 +19893,16 @@
         <v>8</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R8" s="14" t="s">
         <v>8</v>
@@ -19932,16 +19932,16 @@
         <v>8</v>
       </c>
       <c r="AA8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE8" s="14" t="s">
         <v>8</v>
@@ -19964,7 +19964,7 @@
     </row>
     <row r="9" spans="1:36" ht="15" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>11</v>
@@ -19985,16 +19985,16 @@
         <v>8</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L9" s="14" t="s">
         <v>8</v>
@@ -20024,16 +20024,16 @@
         <v>8</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y9" s="14" t="s">
         <v>8</v>
@@ -20074,7 +20074,7 @@
     </row>
     <row r="10" spans="1:36" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>8</v>
@@ -20083,19 +20083,19 @@
         <v>8</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>8</v>
@@ -20122,16 +20122,16 @@
         <v>8</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U10" s="14" t="s">
         <v>8</v>
@@ -20161,13 +20161,13 @@
         <v>8</v>
       </c>
       <c r="AD10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG10" s="13"/>
       <c r="AH10" s="6">
@@ -20185,7 +20185,7 @@
     </row>
     <row r="11" spans="1:36" ht="15" customHeight="1">
       <c r="A11" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>8</v>
@@ -20209,19 +20209,19 @@
         <v>8</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N11" s="14" t="s">
         <v>8</v>
@@ -20248,16 +20248,16 @@
         <v>8</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z11" s="14" t="s">
         <v>8</v>
@@ -20295,7 +20295,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="14">
         <f>COUNTIF(B4:B11,"P06")</f>
@@ -20424,7 +20424,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="14">
         <f>COUNTIF(B4:B11,"P14")</f>
@@ -20554,96 +20554,96 @@
     <row r="15" spans="1:36" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:36">
       <c r="E16" s="42"/>
-      <c r="F16" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55" t="s">
+      <c r="F16" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="47"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N16" s="24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
       <c r="Q16" s="25"/>
       <c r="R16" s="25"/>
       <c r="S16" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T16" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U16" s="27"/>
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
+      <c r="Z16" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51" t="s">
+      <c r="F17" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="49"/>
       <c r="M17" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O17" s="29"/>
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
       <c r="R17" s="29"/>
       <c r="S17" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U17" s="29"/>
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="57"/>
+      <c r="I18" s="51"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -20664,28 +20664,28 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="57"/>
+      <c r="I19" s="51"/>
       <c r="M19" s="31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N19" s="17" t="s">
         <v>43</v>
@@ -20707,16 +20707,16 @@
     </row>
     <row r="20" spans="5:32">
       <c r="E20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="57"/>
+      <c r="I20" s="51"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -20742,14 +20742,14 @@
       <c r="E21" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="55"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -20773,7 +20773,7 @@
     </row>
     <row r="22" spans="5:32">
       <c r="M22" s="32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N22" s="17" t="s">
         <v>55</v>
@@ -20795,7 +20795,7 @@
     </row>
     <row r="23" spans="5:32">
       <c r="M23" s="33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N23" s="17" t="s">
         <v>57</v>
@@ -20971,12 +20971,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -20987,6 +20981,12 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:AF3">
     <cfRule type="expression" dxfId="17" priority="3">
@@ -21025,47 +21025,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
       <c r="AJ1" s="12"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="48">
+      <c r="A2" s="57">
         <v>46235</v>
       </c>
       <c r="B2" s="21">
@@ -21192,14 +21192,14 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AH2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
+      <c r="AH2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="21" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>SA</v>
@@ -21345,19 +21345,19 @@
         <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>8</v>
@@ -21366,19 +21366,19 @@
         <v>8</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="P4" s="14" t="s">
         <v>8</v>
@@ -21387,19 +21387,19 @@
         <v>8</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="W4" s="14" t="s">
         <v>8</v>
@@ -21408,19 +21408,19 @@
         <v>8</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AD4" s="14" t="s">
         <v>8</v>
@@ -21429,7 +21429,7 @@
         <v>8</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AH4" s="6">
         <f>JUL!AJ4</f>
@@ -21446,7 +21446,7 @@
     </row>
     <row r="5" spans="1:36" ht="15" customHeight="1">
       <c r="A5" s="22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>8</v>
@@ -21556,7 +21556,7 @@
     </row>
     <row r="6" spans="1:36" ht="15" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>8</v>
@@ -21666,7 +21666,7 @@
     </row>
     <row r="7" spans="1:36" ht="15" customHeight="1">
       <c r="A7" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>11</v>
@@ -21681,16 +21681,16 @@
         <v>8</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J7" s="14" t="s">
         <v>8</v>
@@ -21717,19 +21717,19 @@
         <v>8</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W7" s="14" t="s">
         <v>8</v>
@@ -21756,10 +21756,10 @@
         <v>8</v>
       </c>
       <c r="AE7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH7" s="6">
         <f>JUL!AJ7</f>
@@ -21776,7 +21776,7 @@
     </row>
     <row r="8" spans="1:36" ht="15" customHeight="1">
       <c r="A8" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>11</v>
@@ -21797,19 +21797,19 @@
         <v>8</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M8" s="14" t="s">
         <v>8</v>
@@ -21836,16 +21836,16 @@
         <v>8</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y8" s="14" t="s">
         <v>8</v>
@@ -21886,19 +21886,19 @@
     </row>
     <row r="9" spans="1:36" ht="15" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>8</v>
@@ -21925,16 +21925,16 @@
         <v>8</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R9" s="14" t="s">
         <v>8</v>
@@ -21964,16 +21964,16 @@
         <v>8</v>
       </c>
       <c r="AA9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE9" s="14" t="s">
         <v>8</v>
@@ -21996,10 +21996,10 @@
     </row>
     <row r="10" spans="1:36" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>8</v>
@@ -22026,19 +22026,19 @@
         <v>8</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P10" s="14" t="s">
         <v>8</v>
@@ -22065,16 +22065,16 @@
         <v>8</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB10" s="14" t="s">
         <v>8</v>
@@ -22107,7 +22107,7 @@
     </row>
     <row r="11" spans="1:36" ht="15" customHeight="1">
       <c r="A11" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>8</v>
@@ -22116,16 +22116,16 @@
         <v>8</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>8</v>
@@ -22155,16 +22155,16 @@
         <v>8</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U11" s="14" t="s">
         <v>8</v>
@@ -22191,16 +22191,16 @@
         <v>8</v>
       </c>
       <c r="AC11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH11" s="6">
         <f>JUL!AJ11</f>
@@ -22217,7 +22217,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="14">
         <f>COUNTIF(B4:B11,"P06")</f>
@@ -22346,7 +22346,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="14">
         <f>COUNTIF(B4:B11,"P14")</f>
@@ -22476,96 +22476,96 @@
     <row r="15" spans="1:36" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:36">
       <c r="E16" s="42"/>
-      <c r="F16" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55" t="s">
+      <c r="F16" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="47"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N16" s="24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
       <c r="Q16" s="25"/>
       <c r="R16" s="25"/>
       <c r="S16" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T16" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U16" s="27"/>
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
+      <c r="Z16" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51" t="s">
+      <c r="F17" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="49"/>
       <c r="M17" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O17" s="29"/>
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
       <c r="R17" s="29"/>
       <c r="S17" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U17" s="29"/>
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="57"/>
+      <c r="I18" s="51"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -22586,28 +22586,28 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="57"/>
+      <c r="I19" s="51"/>
       <c r="M19" s="31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N19" s="17" t="s">
         <v>43</v>
@@ -22629,16 +22629,16 @@
     </row>
     <row r="20" spans="5:32">
       <c r="E20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="57"/>
+      <c r="I20" s="51"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -22664,14 +22664,14 @@
       <c r="E21" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="55"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -22695,7 +22695,7 @@
     </row>
     <row r="22" spans="5:32">
       <c r="M22" s="32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N22" s="17" t="s">
         <v>55</v>
@@ -22717,7 +22717,7 @@
     </row>
     <row r="23" spans="5:32">
       <c r="M23" s="33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N23" s="17" t="s">
         <v>57</v>
@@ -22893,12 +22893,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -22909,6 +22903,12 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:O3 Q2:AF3">
     <cfRule type="expression" dxfId="14" priority="3">
@@ -22947,46 +22947,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
       <c r="AF1" s="12"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
     </row>
     <row r="2" spans="1:35" ht="15" customHeight="1">
-      <c r="A2" s="48">
+      <c r="A2" s="57">
         <v>46266</v>
       </c>
       <c r="B2" s="21">
@@ -23109,14 +23109,14 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AG2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
+      <c r="AG2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="21" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>TU</v>
@@ -23252,16 +23252,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>8</v>
@@ -23270,19 +23270,19 @@
         <v>8</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="M4" s="14" t="s">
         <v>8</v>
@@ -23291,19 +23291,19 @@
         <v>8</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="T4" s="14" t="s">
         <v>8</v>
@@ -23312,19 +23312,19 @@
         <v>8</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AA4" s="14" t="s">
         <v>8</v>
@@ -23333,13 +23333,13 @@
         <v>8</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="AG4" s="6">
         <f>AUG!AJ4</f>
@@ -23356,7 +23356,7 @@
     </row>
     <row r="5" spans="1:35" ht="15" customHeight="1">
       <c r="A5" s="22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
@@ -23407,7 +23407,7 @@
         <v>9</v>
       </c>
       <c r="R5" s="33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S5" s="5" t="s">
         <v>9</v>
@@ -23463,7 +23463,7 @@
     </row>
     <row r="6" spans="1:35" ht="15" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>9</v>
@@ -23570,13 +23570,13 @@
     </row>
     <row r="7" spans="1:35" ht="15" customHeight="1">
       <c r="A7" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>8</v>
@@ -23585,16 +23585,16 @@
         <v>8</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J7" s="14" t="s">
         <v>8</v>
@@ -23621,16 +23621,16 @@
         <v>8</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V7" s="14" t="s">
         <v>8</v>
@@ -23660,7 +23660,7 @@
         <v>8</v>
       </c>
       <c r="AE7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG7" s="6">
         <f>AUG!AJ7</f>
@@ -23677,22 +23677,22 @@
     </row>
     <row r="8" spans="1:35" ht="15" customHeight="1">
       <c r="A8" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>8</v>
@@ -23722,16 +23722,16 @@
         <v>8</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T8" s="14" t="s">
         <v>8</v>
@@ -23761,13 +23761,13 @@
         <v>8</v>
       </c>
       <c r="AC8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG8" s="6">
         <f>AUG!AJ8</f>
@@ -23784,7 +23784,7 @@
     </row>
     <row r="9" spans="1:35" ht="15" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>11</v>
@@ -23805,19 +23805,19 @@
         <v>8</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M9" s="14" t="s">
         <v>8</v>
@@ -23844,16 +23844,16 @@
         <v>8</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y9" s="14" t="s">
         <v>8</v>
@@ -23891,7 +23891,7 @@
     </row>
     <row r="10" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>11</v>
@@ -23924,19 +23924,19 @@
         <v>8</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="14" t="s">
         <v>8</v>
@@ -23963,19 +23963,19 @@
         <v>8</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD10" s="14" t="s">
         <v>8</v>
@@ -23999,7 +23999,7 @@
     </row>
     <row r="11" spans="1:35" ht="15" customHeight="1">
       <c r="A11" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>8</v>
@@ -24029,16 +24029,16 @@
         <v>8</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O11" s="14" t="s">
         <v>8</v>
@@ -24065,19 +24065,19 @@
         <v>8</v>
       </c>
       <c r="W11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB11" s="14" t="s">
         <v>8</v>
@@ -24106,7 +24106,7 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="14">
         <f>COUNTIF(B4:B11,"P06")</f>
@@ -24231,7 +24231,7 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="14">
         <f>COUNTIF(B4:B11,"P14")</f>
@@ -24357,96 +24357,96 @@
     <row r="15" spans="1:35" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:35">
       <c r="E16" s="42"/>
-      <c r="F16" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55" t="s">
+      <c r="F16" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="47"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N16" s="24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
       <c r="Q16" s="25"/>
       <c r="R16" s="25"/>
       <c r="S16" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T16" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U16" s="27"/>
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
+      <c r="Z16" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51" t="s">
+      <c r="F17" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="49"/>
       <c r="M17" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O17" s="29"/>
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
       <c r="R17" s="29"/>
       <c r="S17" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U17" s="29"/>
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="57"/>
+      <c r="I18" s="51"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -24467,28 +24467,28 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="57"/>
+      <c r="I19" s="51"/>
       <c r="M19" s="31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N19" s="17" t="s">
         <v>43</v>
@@ -24510,16 +24510,16 @@
     </row>
     <row r="20" spans="5:32">
       <c r="E20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="57"/>
+      <c r="I20" s="51"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -24545,14 +24545,14 @@
       <c r="E21" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="55"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -24576,7 +24576,7 @@
     </row>
     <row r="22" spans="5:32">
       <c r="M22" s="32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N22" s="17" t="s">
         <v>55</v>
@@ -24598,7 +24598,7 @@
     </row>
     <row r="23" spans="5:32">
       <c r="M23" s="33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N23" s="17" t="s">
         <v>57</v>
@@ -24774,12 +24774,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -24790,6 +24784,12 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:AE3">
     <cfRule type="expression" dxfId="11" priority="3">
@@ -24863,15 +24863,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001EE2D3878C914646AFDAF8DB79C9CBFF" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="64cef5f809c20957e1bed8db4fd8bd69">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c3af6a4-7f71-4dc2-99e7-9db1cbaccb2c" xmlns:ns3="fa453329-a4c9-4120-b786-6a0f9fa17d90" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c9eb64a58f9f8c69f3f340dcbb635673" ns2:_="" ns3:_="">
     <xsd:import namespace="8c3af6a4-7f71-4dc2-99e7-9db1cbaccb2c"/>
@@ -25112,16 +25103,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25036EC1-2728-4BE7-AC17-163F56A6F287}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AED20691-38BD-4744-A2B0-0BB0E052B916}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98F73132-E113-431B-9C7A-21B04A3303F5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98F73132-E113-431B-9C7A-21B04A3303F5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AED20691-38BD-4744-A2B0-0BB0E052B916}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/files/IT_2026.xlsx
+++ b/files/IT_2026.xlsx
@@ -11,7 +11,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:10001_{991245FC-07BC-4015-BDEF-4EED57848F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="11" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAN" sheetId="86" r:id="rId1"/>
@@ -802,6 +802,33 @@
     <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -817,31 +844,10 @@
     <xf numFmtId="17" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -855,12 +861,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1592,8 +1592,8 @@
   <dimension ref="A1:AN30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="W4" sqref="W4"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AE5" sqref="AE5"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -1606,40 +1606,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
@@ -1650,7 +1650,7 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="48">
+      <c r="A2" s="57">
         <v>46023</v>
       </c>
       <c r="B2" s="23">
@@ -1777,19 +1777,19 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AH2" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AL2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
+      <c r="AH2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AL2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="23" t="str">
         <f t="shared" ref="B3:AF3" si="1">UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>TH</v>
@@ -2144,8 +2144,8 @@
       <c r="AD5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AE5" s="3" t="s">
-        <v>11</v>
+      <c r="AE5" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="AF5" s="14" t="s">
         <v>8</v>
@@ -2866,8 +2866,8 @@
       <c r="AD11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AE11" s="14" t="s">
-        <v>8</v>
+      <c r="AE11" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="AF11" s="14" t="s">
         <v>8</v>
@@ -3156,14 +3156,14 @@
     <row r="15" spans="1:40" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:40">
       <c r="E16" s="42"/>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55" t="s">
+      <c r="G16" s="59"/>
+      <c r="H16" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="I16" s="47"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
@@ -3184,28 +3184,28 @@
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="58" t="s">
+      <c r="Z16" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51" t="s">
+      <c r="G17" s="58"/>
+      <c r="H17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="I17" s="49"/>
       <c r="M17" s="11" t="s">
         <v>35</v>
       </c>
@@ -3226,26 +3226,26 @@
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="57"/>
+      <c r="I18" s="51"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -3266,26 +3266,26 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="57"/>
+      <c r="I19" s="51"/>
       <c r="M19" s="31" t="s">
         <v>18</v>
       </c>
@@ -3311,14 +3311,14 @@
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="57"/>
+      <c r="I20" s="51"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -3344,14 +3344,14 @@
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="55"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -3573,12 +3573,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AL2:AN2"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="A1:AF1"/>
@@ -3590,6 +3584,12 @@
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="Z16:AF18"/>
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <conditionalFormatting sqref="B13:AF14">
     <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
@@ -3628,47 +3628,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
       <c r="AJ1" s="12"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="48">
+      <c r="A2" s="57">
         <v>46296</v>
       </c>
       <c r="B2" s="21">
@@ -3795,14 +3795,14 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AH2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
+      <c r="AH2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="21" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>TH</v>
@@ -5079,14 +5079,14 @@
     <row r="15" spans="1:36" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:36">
       <c r="E16" s="42"/>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55" t="s">
+      <c r="G16" s="59"/>
+      <c r="H16" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="I16" s="47"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
@@ -5107,28 +5107,28 @@
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="58" t="s">
+      <c r="Z16" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51" t="s">
+      <c r="G17" s="58"/>
+      <c r="H17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="I17" s="49"/>
       <c r="M17" s="11" t="s">
         <v>35</v>
       </c>
@@ -5149,26 +5149,26 @@
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="57"/>
+      <c r="I18" s="51"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -5189,26 +5189,26 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="57"/>
+      <c r="I19" s="51"/>
       <c r="M19" s="31" t="s">
         <v>18</v>
       </c>
@@ -5234,14 +5234,14 @@
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="57"/>
+      <c r="I20" s="51"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -5267,14 +5267,14 @@
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="55"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -5496,12 +5496,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -5512,6 +5506,12 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:E3 G2:AF3">
     <cfRule type="expression" dxfId="8" priority="3">
@@ -5550,46 +5550,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
       <c r="AF1" s="12"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
     </row>
     <row r="2" spans="1:35" ht="15" customHeight="1">
-      <c r="A2" s="48">
+      <c r="A2" s="57">
         <v>46327</v>
       </c>
       <c r="B2" s="23">
@@ -5712,14 +5712,14 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AG2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
+      <c r="AG2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="23" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>SU</v>
@@ -6960,14 +6960,14 @@
     <row r="15" spans="1:35" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:35">
       <c r="E16" s="42"/>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55" t="s">
+      <c r="G16" s="59"/>
+      <c r="H16" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="I16" s="47"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
@@ -6988,28 +6988,28 @@
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="58" t="s">
+      <c r="Z16" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51" t="s">
+      <c r="G17" s="58"/>
+      <c r="H17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="I17" s="49"/>
       <c r="M17" s="11" t="s">
         <v>35</v>
       </c>
@@ -7030,26 +7030,26 @@
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="57"/>
+      <c r="I18" s="51"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -7070,26 +7070,26 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="57"/>
+      <c r="I19" s="51"/>
       <c r="M19" s="31" t="s">
         <v>18</v>
       </c>
@@ -7115,14 +7115,14 @@
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="57"/>
+      <c r="I20" s="51"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -7148,14 +7148,14 @@
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="55"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -7377,12 +7377,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -7393,6 +7387,12 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B13:AE14">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -7416,7 +7416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4661035D-4F15-4FC2-8B47-A29E37BFBC5D}">
   <dimension ref="A1:AJ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="AI19" sqref="AI19"/>
       <selection pane="bottomLeft"/>
@@ -7431,47 +7431,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
       <c r="AJ1" s="12"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="48">
+      <c r="A2" s="57">
         <v>46357</v>
       </c>
       <c r="B2" s="23">
@@ -7598,14 +7598,14 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AH2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
+      <c r="AH2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="23" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>TU</v>
@@ -8882,14 +8882,14 @@
     <row r="15" spans="1:36" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:36">
       <c r="E16" s="42"/>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55" t="s">
+      <c r="G16" s="59"/>
+      <c r="H16" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="I16" s="47"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
@@ -8910,28 +8910,28 @@
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="58" t="s">
+      <c r="Z16" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51" t="s">
+      <c r="G17" s="58"/>
+      <c r="H17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="I17" s="49"/>
       <c r="M17" s="11" t="s">
         <v>35</v>
       </c>
@@ -8952,26 +8952,26 @@
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="57"/>
+      <c r="I18" s="51"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -8992,26 +8992,26 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="57"/>
+      <c r="I19" s="51"/>
       <c r="M19" s="31" t="s">
         <v>18</v>
       </c>
@@ -9037,14 +9037,14 @@
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="57"/>
+      <c r="I20" s="51"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -9070,14 +9070,14 @@
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="55"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -9299,12 +9299,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -9315,6 +9309,12 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B13:AF14">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -9338,9 +9338,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E901B9E-1F8C-4966-83E5-6829517B3DD1}">
   <dimension ref="A1:AK30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -9353,37 +9353,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
       <c r="AD1" s="12"/>
       <c r="AE1" s="12"/>
       <c r="AF1" s="12"/>
@@ -9394,7 +9394,7 @@
       <c r="AK1" s="12"/>
     </row>
     <row r="2" spans="1:37" ht="15" customHeight="1">
-      <c r="A2" s="48">
+      <c r="A2" s="57">
         <v>46054</v>
       </c>
       <c r="B2" s="21">
@@ -9509,19 +9509,19 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="AE2" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="50"/>
-      <c r="AI2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
+      <c r="AE2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AI2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
     </row>
     <row r="3" spans="1:37" ht="15" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="21" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>SU</v>
@@ -10450,8 +10450,8 @@
       <c r="A11" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>16</v>
+      <c r="B11" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>16</v>
@@ -10682,7 +10682,7 @@
       </c>
       <c r="B14" s="14">
         <f>COUNTIF(B4:B11,"P14")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="14">
         <f t="shared" ref="C14:AC14" si="7">COUNTIF(C4:C11,"P14")</f>
@@ -10796,14 +10796,14 @@
     <row r="15" spans="1:37" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:37">
       <c r="E16" s="42"/>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55" t="s">
+      <c r="G16" s="59"/>
+      <c r="H16" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="I16" s="47"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
@@ -10824,28 +10824,28 @@
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="58" t="s">
+      <c r="Z16" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51" t="s">
+      <c r="G17" s="58"/>
+      <c r="H17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="I17" s="49"/>
       <c r="M17" s="11" t="s">
         <v>35</v>
       </c>
@@ -10866,26 +10866,26 @@
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="57"/>
+      <c r="I18" s="51"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -10906,26 +10906,26 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="57"/>
+      <c r="I19" s="51"/>
       <c r="M19" s="31" t="s">
         <v>18</v>
       </c>
@@ -10951,14 +10951,14 @@
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="57"/>
+      <c r="I20" s="51"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -10984,14 +10984,14 @@
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="55"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -11213,13 +11213,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -11230,6 +11223,13 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:Q3 S2:AC3">
     <cfRule type="expression" dxfId="32" priority="5">
@@ -11268,40 +11268,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
@@ -11312,7 +11312,7 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="48">
+      <c r="A2" s="57">
         <v>46082</v>
       </c>
       <c r="B2" s="21">
@@ -11439,19 +11439,19 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AH2" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AL2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
+      <c r="AH2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AL2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="21" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>SU</v>
@@ -12834,14 +12834,14 @@
     <row r="15" spans="1:40" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:40">
       <c r="E16" s="42"/>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55" t="s">
+      <c r="G16" s="59"/>
+      <c r="H16" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="I16" s="47"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
@@ -12862,28 +12862,28 @@
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="58" t="s">
+      <c r="Z16" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51" t="s">
+      <c r="G17" s="58"/>
+      <c r="H17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="I17" s="49"/>
       <c r="M17" s="11" t="s">
         <v>35</v>
       </c>
@@ -12904,26 +12904,26 @@
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="57"/>
+      <c r="I18" s="51"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -12944,26 +12944,26 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="57"/>
+      <c r="I19" s="51"/>
       <c r="M19" s="31" t="s">
         <v>18</v>
       </c>
@@ -12989,14 +12989,14 @@
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="57"/>
+      <c r="I20" s="51"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -13022,14 +13022,14 @@
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="55"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -13251,13 +13251,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="AL2:AN2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -13268,6 +13261,13 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:AF3">
     <cfRule type="expression" dxfId="29" priority="5">
@@ -13306,39 +13306,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
       <c r="AF1" s="12"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
@@ -13349,7 +13349,7 @@
       <c r="AM1" s="12"/>
     </row>
     <row r="2" spans="1:39" ht="15" customHeight="1">
-      <c r="A2" s="48">
+      <c r="A2" s="57">
         <v>46113</v>
       </c>
       <c r="B2" s="21">
@@ -13472,19 +13472,19 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AG2" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
-      <c r="AK2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
+      <c r="AG2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AK2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
     </row>
     <row r="3" spans="1:39" ht="15" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="21" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>WE</v>
@@ -14831,14 +14831,14 @@
     <row r="15" spans="1:39" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:39">
       <c r="E16" s="42"/>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55" t="s">
+      <c r="G16" s="59"/>
+      <c r="H16" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="I16" s="47"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
@@ -14859,28 +14859,28 @@
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="58" t="s">
+      <c r="Z16" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51" t="s">
+      <c r="G17" s="58"/>
+      <c r="H17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="I17" s="49"/>
       <c r="M17" s="11" t="s">
         <v>35</v>
       </c>
@@ -14901,26 +14901,26 @@
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="57"/>
+      <c r="I18" s="51"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -14941,26 +14941,26 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="57"/>
+      <c r="I19" s="51"/>
       <c r="M19" s="31" t="s">
         <v>18</v>
       </c>
@@ -14986,14 +14986,14 @@
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="57"/>
+      <c r="I20" s="51"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -15019,14 +15019,14 @@
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="55"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -15248,13 +15248,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -15265,6 +15258,13 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:C3 E2:E3 G2:Y3 AA2:AE3">
     <cfRule type="expression" dxfId="26" priority="3">
@@ -15303,47 +15303,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
       <c r="AJ1" s="12"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="48">
+      <c r="A2" s="57">
         <v>46143</v>
       </c>
       <c r="B2" s="23">
@@ -15470,14 +15470,14 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AH2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
+      <c r="AH2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="23" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>FR</v>
@@ -16754,14 +16754,14 @@
     <row r="15" spans="1:36" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:36">
       <c r="E16" s="42"/>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55" t="s">
+      <c r="G16" s="59"/>
+      <c r="H16" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="I16" s="47"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
@@ -16782,28 +16782,28 @@
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="58" t="s">
+      <c r="Z16" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51" t="s">
+      <c r="G17" s="58"/>
+      <c r="H17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="I17" s="49"/>
       <c r="M17" s="11" t="s">
         <v>35</v>
       </c>
@@ -16824,26 +16824,26 @@
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="57"/>
+      <c r="I18" s="51"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -16864,26 +16864,26 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="57"/>
+      <c r="I19" s="51"/>
       <c r="M19" s="31" t="s">
         <v>18</v>
       </c>
@@ -16909,14 +16909,14 @@
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="57"/>
+      <c r="I20" s="51"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -16942,14 +16942,14 @@
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="55"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -17171,12 +17171,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -17187,6 +17181,12 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B13:AF14">
     <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
@@ -17225,46 +17225,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
       <c r="AF1" s="12"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
     </row>
     <row r="2" spans="1:35" ht="15" customHeight="1">
-      <c r="A2" s="48">
+      <c r="A2" s="57">
         <v>46174</v>
       </c>
       <c r="B2" s="21">
@@ -17387,14 +17387,14 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AG2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
+      <c r="AG2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="21" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>MO</v>
@@ -18635,14 +18635,14 @@
     <row r="15" spans="1:35" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:35">
       <c r="E16" s="42"/>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55" t="s">
+      <c r="G16" s="59"/>
+      <c r="H16" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="I16" s="47"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
@@ -18663,28 +18663,28 @@
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="58" t="s">
+      <c r="Z16" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51" t="s">
+      <c r="G17" s="58"/>
+      <c r="H17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="I17" s="49"/>
       <c r="M17" s="11" t="s">
         <v>35</v>
       </c>
@@ -18705,26 +18705,26 @@
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="57"/>
+      <c r="I18" s="51"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -18745,26 +18745,26 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="57"/>
+      <c r="I19" s="51"/>
       <c r="M19" s="31" t="s">
         <v>18</v>
       </c>
@@ -18790,14 +18790,14 @@
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="57"/>
+      <c r="I20" s="51"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -18823,14 +18823,14 @@
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="55"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -19052,12 +19052,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -19068,6 +19062,12 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:D3 F2:J3 L2:X3 Z2:AE3">
     <cfRule type="expression" dxfId="20" priority="3">
@@ -19106,47 +19106,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
       <c r="AJ1" s="12"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="48">
+      <c r="A2" s="57">
         <v>46204</v>
       </c>
       <c r="B2" s="21">
@@ -19273,14 +19273,14 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AH2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
+      <c r="AH2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="21" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>WE</v>
@@ -20557,14 +20557,14 @@
     <row r="15" spans="1:36" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:36">
       <c r="E16" s="42"/>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55" t="s">
+      <c r="G16" s="59"/>
+      <c r="H16" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="I16" s="47"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
@@ -20585,28 +20585,28 @@
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="58" t="s">
+      <c r="Z16" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51" t="s">
+      <c r="G17" s="58"/>
+      <c r="H17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="I17" s="49"/>
       <c r="M17" s="11" t="s">
         <v>35</v>
       </c>
@@ -20627,26 +20627,26 @@
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="57"/>
+      <c r="I18" s="51"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -20667,26 +20667,26 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="57"/>
+      <c r="I19" s="51"/>
       <c r="M19" s="31" t="s">
         <v>18</v>
       </c>
@@ -20712,14 +20712,14 @@
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="57"/>
+      <c r="I20" s="51"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -20745,14 +20745,14 @@
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="55"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -20974,12 +20974,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -20990,6 +20984,12 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:AF3">
     <cfRule type="expression" dxfId="17" priority="3">
@@ -21028,47 +21028,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
       <c r="AJ1" s="12"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="48">
+      <c r="A2" s="57">
         <v>46235</v>
       </c>
       <c r="B2" s="21">
@@ -21195,14 +21195,14 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AH2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
+      <c r="AH2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="21" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>SA</v>
@@ -22479,14 +22479,14 @@
     <row r="15" spans="1:36" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:36">
       <c r="E16" s="42"/>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55" t="s">
+      <c r="G16" s="59"/>
+      <c r="H16" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="I16" s="47"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
@@ -22507,28 +22507,28 @@
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="58" t="s">
+      <c r="Z16" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51" t="s">
+      <c r="G17" s="58"/>
+      <c r="H17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="I17" s="49"/>
       <c r="M17" s="11" t="s">
         <v>35</v>
       </c>
@@ -22549,26 +22549,26 @@
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="57"/>
+      <c r="I18" s="51"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -22589,26 +22589,26 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="57"/>
+      <c r="I19" s="51"/>
       <c r="M19" s="31" t="s">
         <v>18</v>
       </c>
@@ -22634,14 +22634,14 @@
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="57"/>
+      <c r="I20" s="51"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -22667,14 +22667,14 @@
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="55"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -22896,12 +22896,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -22912,6 +22906,12 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:O3 Q2:AF3">
     <cfRule type="expression" dxfId="14" priority="3">
@@ -22950,46 +22950,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
       <c r="AF1" s="12"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
     </row>
     <row r="2" spans="1:35" ht="15" customHeight="1">
-      <c r="A2" s="48">
+      <c r="A2" s="57">
         <v>46266</v>
       </c>
       <c r="B2" s="21">
@@ -23112,14 +23112,14 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AG2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
+      <c r="AG2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="21" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>TU</v>
@@ -24360,14 +24360,14 @@
     <row r="15" spans="1:35" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:35">
       <c r="E16" s="42"/>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55" t="s">
+      <c r="G16" s="59"/>
+      <c r="H16" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="I16" s="47"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
@@ -24388,28 +24388,28 @@
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="58" t="s">
+      <c r="Z16" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51" t="s">
+      <c r="G17" s="58"/>
+      <c r="H17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="I17" s="49"/>
       <c r="M17" s="11" t="s">
         <v>35</v>
       </c>
@@ -24430,26 +24430,26 @@
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="57"/>
+      <c r="I18" s="51"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -24470,26 +24470,26 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="57"/>
+      <c r="I19" s="51"/>
       <c r="M19" s="31" t="s">
         <v>18</v>
       </c>
@@ -24515,14 +24515,14 @@
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="57"/>
+      <c r="I20" s="51"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -24548,14 +24548,14 @@
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="55"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -24777,12 +24777,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -24793,6 +24787,12 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:AE3">
     <cfRule type="expression" dxfId="11" priority="3">
@@ -24813,6 +24813,68 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="fa453329-a4c9-4120-b786-6a0f9fa17d90">
+      <UserInfo>
+        <DisplayName>SANTOS, SOFIA</DisplayName>
+        <AccountId>28</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>CASTRO, MARIANA</DisplayName>
+        <AccountId>116</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>GASPAR, DIANA</DisplayName>
+        <AccountId>41</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>TATO, ELISABETE</DisplayName>
+        <AccountId>80</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>FONTES, ALICE</DisplayName>
+        <AccountId>88</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>SILVA SANTOS, NUNO MIGUEL</DisplayName>
+        <AccountId>22</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>BASILIO, BRUNO</DisplayName>
+        <AccountId>65</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>MIRANDA, ANTONIO</DisplayName>
+        <AccountId>356</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <TaxCatchAll xmlns="fa453329-a4c9-4120-b786-6a0f9fa17d90" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8c3af6a4-7f71-4dc2-99e7-9db1cbaccb2c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001EE2D3878C914646AFDAF8DB79C9CBFF" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2cdea53bbbbe1c592d4ed0089fc04525">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c3af6a4-7f71-4dc2-99e7-9db1cbaccb2c" xmlns:ns3="fa453329-a4c9-4120-b786-6a0f9fa17d90" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c0fb91ccd09afdd2cf070cd91e44e663" ns2:_="" ns3:_="">
     <xsd:import namespace="8c3af6a4-7f71-4dc2-99e7-9db1cbaccb2c"/>
@@ -25053,70 +25115,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="fa453329-a4c9-4120-b786-6a0f9fa17d90">
-      <UserInfo>
-        <DisplayName>SANTOS, SOFIA</DisplayName>
-        <AccountId>28</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>CASTRO, MARIANA</DisplayName>
-        <AccountId>116</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>GASPAR, DIANA</DisplayName>
-        <AccountId>41</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>TATO, ELISABETE</DisplayName>
-        <AccountId>80</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>FONTES, ALICE</DisplayName>
-        <AccountId>88</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>SILVA SANTOS, NUNO MIGUEL</DisplayName>
-        <AccountId>22</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>BASILIO, BRUNO</DisplayName>
-        <AccountId>65</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>MIRANDA, ANTONIO</DisplayName>
-        <AccountId>356</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <TaxCatchAll xmlns="fa453329-a4c9-4120-b786-6a0f9fa17d90" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8c3af6a4-7f71-4dc2-99e7-9db1cbaccb2c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29B84BB2-0D53-4A94-BCB9-BA0A420A2CD1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AED20691-38BD-4744-A2B0-0BB0E052B916}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25124,7 +25124,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AED20691-38BD-4744-A2B0-0BB0E052B916}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29B84BB2-0D53-4A94-BCB9-BA0A420A2CD1}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/files/IT_2026.xlsx
+++ b/files/IT_2026.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
   <fileSharing readOnlyRecommended="1" userName="ALEXANDRE, LUISA" algorithmName="SHA-512" hashValue="Adf9lh9ReIucWlaaerszpKKTBJ1wqwczuUrc7Pxi/LtOOgKn18lrTzx/X3SDZIrlwuYvDSYptHSGSM48KU7dCQ==" saltValue="KG7kan4hwKZZufg2n+VohQ==" spinCount="100000"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11,7 +11,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:10001_{991245FC-07BC-4015-BDEF-4EED57848F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="11" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAN" sheetId="86" r:id="rId1"/>
@@ -802,33 +802,6 @@
     <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -844,10 +817,31 @@
     <xf numFmtId="17" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -861,6 +855,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1606,40 +1606,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
@@ -1650,7 +1650,7 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="57">
+      <c r="A2" s="48">
         <v>46023</v>
       </c>
       <c r="B2" s="23">
@@ -1777,19 +1777,19 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AH2" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AL2" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="45"/>
+      <c r="AH2" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AL2" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="50"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1">
-      <c r="A3" s="57"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="23" t="str">
         <f t="shared" ref="B3:AF3" si="1">UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>TH</v>
@@ -3156,14 +3156,14 @@
     <row r="15" spans="1:40" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:40">
       <c r="E16" s="42"/>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="59"/>
-      <c r="H16" s="46" t="s">
+      <c r="G16" s="56"/>
+      <c r="H16" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="47"/>
+      <c r="I16" s="62"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
@@ -3184,28 +3184,28 @@
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="60" t="s">
+      <c r="Z16" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="AA16" s="61"/>
-      <c r="AB16" s="61"/>
-      <c r="AC16" s="61"/>
-      <c r="AD16" s="61"/>
-      <c r="AE16" s="61"/>
-      <c r="AF16" s="61"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="59"/>
+      <c r="AE16" s="59"/>
+      <c r="AF16" s="59"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="58"/>
-      <c r="H17" s="48" t="s">
+      <c r="G17" s="52"/>
+      <c r="H17" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="49"/>
+      <c r="I17" s="63"/>
       <c r="M17" s="11" t="s">
         <v>35</v>
       </c>
@@ -3226,26 +3226,26 @@
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="63"/>
-      <c r="AB17" s="63"/>
-      <c r="AC17" s="63"/>
-      <c r="AD17" s="63"/>
-      <c r="AE17" s="63"/>
-      <c r="AF17" s="63"/>
+      <c r="Z17" s="60"/>
+      <c r="AA17" s="61"/>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="61"/>
+      <c r="AD17" s="61"/>
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="61"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="50" t="s">
+      <c r="G18" s="54"/>
+      <c r="H18" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="51"/>
+      <c r="I18" s="57"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -3266,26 +3266,26 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="63"/>
-      <c r="AC18" s="63"/>
-      <c r="AD18" s="63"/>
-      <c r="AE18" s="63"/>
-      <c r="AF18" s="63"/>
+      <c r="Z18" s="60"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="50" t="s">
+      <c r="G19" s="54"/>
+      <c r="H19" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="51"/>
+      <c r="I19" s="57"/>
       <c r="M19" s="31" t="s">
         <v>18</v>
       </c>
@@ -3311,14 +3311,14 @@
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="50" t="s">
+      <c r="G20" s="54"/>
+      <c r="H20" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="51"/>
+      <c r="I20" s="57"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -3344,14 +3344,14 @@
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="F21" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="53" t="s">
+      <c r="G21" s="45"/>
+      <c r="H21" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="55"/>
+      <c r="I21" s="46"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -3573,6 +3573,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="A1:AF1"/>
@@ -3584,12 +3590,6 @@
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="Z16:AF18"/>
-    <mergeCell ref="AL2:AN2"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <conditionalFormatting sqref="B13:AF14">
     <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
@@ -3628,47 +3628,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
       <c r="AJ1" s="12"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="57">
+      <c r="A2" s="48">
         <v>46296</v>
       </c>
       <c r="B2" s="21">
@@ -3795,14 +3795,14 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AH2" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
+      <c r="AH2" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
-      <c r="A3" s="57"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="21" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>TH</v>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="AH5" s="6">
         <f>SEP!AI5</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI5" s="15">
         <f t="shared" ref="AI5:AI11" si="3">COUNTIF(B5:AF5,"U")</f>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="AJ5" s="15">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="15" customHeight="1">
@@ -5079,14 +5079,14 @@
     <row r="15" spans="1:36" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:36">
       <c r="E16" s="42"/>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="59"/>
-      <c r="H16" s="46" t="s">
+      <c r="G16" s="56"/>
+      <c r="H16" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="47"/>
+      <c r="I16" s="62"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
@@ -5107,28 +5107,28 @@
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="60" t="s">
+      <c r="Z16" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="AA16" s="61"/>
-      <c r="AB16" s="61"/>
-      <c r="AC16" s="61"/>
-      <c r="AD16" s="61"/>
-      <c r="AE16" s="61"/>
-      <c r="AF16" s="61"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="59"/>
+      <c r="AE16" s="59"/>
+      <c r="AF16" s="59"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="58"/>
-      <c r="H17" s="48" t="s">
+      <c r="G17" s="52"/>
+      <c r="H17" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="49"/>
+      <c r="I17" s="63"/>
       <c r="M17" s="11" t="s">
         <v>35</v>
       </c>
@@ -5149,26 +5149,26 @@
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="63"/>
-      <c r="AB17" s="63"/>
-      <c r="AC17" s="63"/>
-      <c r="AD17" s="63"/>
-      <c r="AE17" s="63"/>
-      <c r="AF17" s="63"/>
+      <c r="Z17" s="60"/>
+      <c r="AA17" s="61"/>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="61"/>
+      <c r="AD17" s="61"/>
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="61"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="50" t="s">
+      <c r="G18" s="54"/>
+      <c r="H18" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="51"/>
+      <c r="I18" s="57"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -5189,26 +5189,26 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="63"/>
-      <c r="AC18" s="63"/>
-      <c r="AD18" s="63"/>
-      <c r="AE18" s="63"/>
-      <c r="AF18" s="63"/>
+      <c r="Z18" s="60"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="50" t="s">
+      <c r="G19" s="54"/>
+      <c r="H19" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="51"/>
+      <c r="I19" s="57"/>
       <c r="M19" s="31" t="s">
         <v>18</v>
       </c>
@@ -5234,14 +5234,14 @@
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="50" t="s">
+      <c r="G20" s="54"/>
+      <c r="H20" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="51"/>
+      <c r="I20" s="57"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -5267,14 +5267,14 @@
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="F21" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="53" t="s">
+      <c r="G21" s="45"/>
+      <c r="H21" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="55"/>
+      <c r="I21" s="46"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -5496,6 +5496,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -5506,12 +5512,6 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:E3 G2:AF3">
     <cfRule type="expression" dxfId="8" priority="3">
@@ -5550,46 +5550,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
       <c r="AF1" s="12"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
     </row>
     <row r="2" spans="1:35" ht="15" customHeight="1">
-      <c r="A2" s="57">
+      <c r="A2" s="48">
         <v>46327</v>
       </c>
       <c r="B2" s="23">
@@ -5712,14 +5712,14 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AG2" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
+      <c r="AG2" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="50"/>
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1">
-      <c r="A3" s="57"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="23" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>SU</v>
@@ -6053,7 +6053,7 @@
       </c>
       <c r="AG5" s="6">
         <f>OCT!AJ5</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH5" s="15">
         <f t="shared" ref="AH5:AH11" si="3">COUNTIF(B5:AE5,"U")</f>
@@ -6061,7 +6061,7 @@
       </c>
       <c r="AI5" s="15">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="15" customHeight="1">
@@ -6960,14 +6960,14 @@
     <row r="15" spans="1:35" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:35">
       <c r="E16" s="42"/>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="59"/>
-      <c r="H16" s="46" t="s">
+      <c r="G16" s="56"/>
+      <c r="H16" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="47"/>
+      <c r="I16" s="62"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
@@ -6988,28 +6988,28 @@
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="60" t="s">
+      <c r="Z16" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="AA16" s="61"/>
-      <c r="AB16" s="61"/>
-      <c r="AC16" s="61"/>
-      <c r="AD16" s="61"/>
-      <c r="AE16" s="61"/>
-      <c r="AF16" s="61"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="59"/>
+      <c r="AE16" s="59"/>
+      <c r="AF16" s="59"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="58"/>
-      <c r="H17" s="48" t="s">
+      <c r="G17" s="52"/>
+      <c r="H17" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="49"/>
+      <c r="I17" s="63"/>
       <c r="M17" s="11" t="s">
         <v>35</v>
       </c>
@@ -7030,26 +7030,26 @@
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="63"/>
-      <c r="AB17" s="63"/>
-      <c r="AC17" s="63"/>
-      <c r="AD17" s="63"/>
-      <c r="AE17" s="63"/>
-      <c r="AF17" s="63"/>
+      <c r="Z17" s="60"/>
+      <c r="AA17" s="61"/>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="61"/>
+      <c r="AD17" s="61"/>
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="61"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="50" t="s">
+      <c r="G18" s="54"/>
+      <c r="H18" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="51"/>
+      <c r="I18" s="57"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -7070,26 +7070,26 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="63"/>
-      <c r="AC18" s="63"/>
-      <c r="AD18" s="63"/>
-      <c r="AE18" s="63"/>
-      <c r="AF18" s="63"/>
+      <c r="Z18" s="60"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="50" t="s">
+      <c r="G19" s="54"/>
+      <c r="H19" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="51"/>
+      <c r="I19" s="57"/>
       <c r="M19" s="31" t="s">
         <v>18</v>
       </c>
@@ -7115,14 +7115,14 @@
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="50" t="s">
+      <c r="G20" s="54"/>
+      <c r="H20" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="51"/>
+      <c r="I20" s="57"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -7148,14 +7148,14 @@
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="F21" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="53" t="s">
+      <c r="G21" s="45"/>
+      <c r="H21" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="55"/>
+      <c r="I21" s="46"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -7377,6 +7377,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -7387,12 +7393,6 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B13:AE14">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -7431,47 +7431,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
       <c r="AJ1" s="12"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="57">
+      <c r="A2" s="48">
         <v>46357</v>
       </c>
       <c r="B2" s="23">
@@ -7598,14 +7598,14 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AH2" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
+      <c r="AH2" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
-      <c r="A3" s="57"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="23" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>TU</v>
@@ -7949,7 +7949,7 @@
       </c>
       <c r="AH5" s="6">
         <f>NOV!AI5</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI5" s="15">
         <f t="shared" ref="AI5:AI11" si="3">COUNTIF(B5:AF5,"U")</f>
@@ -7957,7 +7957,7 @@
       </c>
       <c r="AJ5" s="15">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="15" customHeight="1">
@@ -8882,14 +8882,14 @@
     <row r="15" spans="1:36" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:36">
       <c r="E16" s="42"/>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="59"/>
-      <c r="H16" s="46" t="s">
+      <c r="G16" s="56"/>
+      <c r="H16" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="47"/>
+      <c r="I16" s="62"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
@@ -8910,28 +8910,28 @@
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="60" t="s">
+      <c r="Z16" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="AA16" s="61"/>
-      <c r="AB16" s="61"/>
-      <c r="AC16" s="61"/>
-      <c r="AD16" s="61"/>
-      <c r="AE16" s="61"/>
-      <c r="AF16" s="61"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="59"/>
+      <c r="AE16" s="59"/>
+      <c r="AF16" s="59"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="58"/>
-      <c r="H17" s="48" t="s">
+      <c r="G17" s="52"/>
+      <c r="H17" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="49"/>
+      <c r="I17" s="63"/>
       <c r="M17" s="11" t="s">
         <v>35</v>
       </c>
@@ -8952,26 +8952,26 @@
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="63"/>
-      <c r="AB17" s="63"/>
-      <c r="AC17" s="63"/>
-      <c r="AD17" s="63"/>
-      <c r="AE17" s="63"/>
-      <c r="AF17" s="63"/>
+      <c r="Z17" s="60"/>
+      <c r="AA17" s="61"/>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="61"/>
+      <c r="AD17" s="61"/>
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="61"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="50" t="s">
+      <c r="G18" s="54"/>
+      <c r="H18" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="51"/>
+      <c r="I18" s="57"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -8992,26 +8992,26 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="63"/>
-      <c r="AC18" s="63"/>
-      <c r="AD18" s="63"/>
-      <c r="AE18" s="63"/>
-      <c r="AF18" s="63"/>
+      <c r="Z18" s="60"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="50" t="s">
+      <c r="G19" s="54"/>
+      <c r="H19" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="51"/>
+      <c r="I19" s="57"/>
       <c r="M19" s="31" t="s">
         <v>18</v>
       </c>
@@ -9037,14 +9037,14 @@
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="50" t="s">
+      <c r="G20" s="54"/>
+      <c r="H20" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="51"/>
+      <c r="I20" s="57"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -9070,14 +9070,14 @@
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="F21" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="53" t="s">
+      <c r="G21" s="45"/>
+      <c r="H21" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="55"/>
+      <c r="I21" s="46"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -9299,6 +9299,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -9309,12 +9315,6 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B13:AF14">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -9340,7 +9340,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5:G5"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -9353,37 +9353,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
       <c r="AD1" s="12"/>
       <c r="AE1" s="12"/>
       <c r="AF1" s="12"/>
@@ -9394,7 +9394,7 @@
       <c r="AK1" s="12"/>
     </row>
     <row r="2" spans="1:37" ht="15" customHeight="1">
-      <c r="A2" s="57">
+      <c r="A2" s="48">
         <v>46054</v>
       </c>
       <c r="B2" s="21">
@@ -9509,19 +9509,19 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="AE2" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AI2" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
+      <c r="AE2" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
+      <c r="AI2" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
     </row>
     <row r="3" spans="1:37" ht="15" customHeight="1">
-      <c r="A3" s="57"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="21" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>SU</v>
@@ -9782,11 +9782,11 @@
       <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>9</v>
+      <c r="F5" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>18</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>8</v>
@@ -9872,11 +9872,11 @@
       </c>
       <c r="AJ5" s="15">
         <f t="shared" ref="AJ4:AJ11" si="5">COUNTIF(B5:AC5,"U")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK5" s="15">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:37" ht="15" customHeight="1">
@@ -10796,14 +10796,14 @@
     <row r="15" spans="1:37" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:37">
       <c r="E16" s="42"/>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="59"/>
-      <c r="H16" s="46" t="s">
+      <c r="G16" s="56"/>
+      <c r="H16" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="47"/>
+      <c r="I16" s="62"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
@@ -10824,28 +10824,28 @@
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="60" t="s">
+      <c r="Z16" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="AA16" s="61"/>
-      <c r="AB16" s="61"/>
-      <c r="AC16" s="61"/>
-      <c r="AD16" s="61"/>
-      <c r="AE16" s="61"/>
-      <c r="AF16" s="61"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="59"/>
+      <c r="AE16" s="59"/>
+      <c r="AF16" s="59"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="58"/>
-      <c r="H17" s="48" t="s">
+      <c r="G17" s="52"/>
+      <c r="H17" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="49"/>
+      <c r="I17" s="63"/>
       <c r="M17" s="11" t="s">
         <v>35</v>
       </c>
@@ -10866,26 +10866,26 @@
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="63"/>
-      <c r="AB17" s="63"/>
-      <c r="AC17" s="63"/>
-      <c r="AD17" s="63"/>
-      <c r="AE17" s="63"/>
-      <c r="AF17" s="63"/>
+      <c r="Z17" s="60"/>
+      <c r="AA17" s="61"/>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="61"/>
+      <c r="AD17" s="61"/>
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="61"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="50" t="s">
+      <c r="G18" s="54"/>
+      <c r="H18" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="51"/>
+      <c r="I18" s="57"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -10906,26 +10906,26 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="63"/>
-      <c r="AC18" s="63"/>
-      <c r="AD18" s="63"/>
-      <c r="AE18" s="63"/>
-      <c r="AF18" s="63"/>
+      <c r="Z18" s="60"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="50" t="s">
+      <c r="G19" s="54"/>
+      <c r="H19" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="51"/>
+      <c r="I19" s="57"/>
       <c r="M19" s="31" t="s">
         <v>18</v>
       </c>
@@ -10951,14 +10951,14 @@
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="50" t="s">
+      <c r="G20" s="54"/>
+      <c r="H20" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="51"/>
+      <c r="I20" s="57"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -10984,14 +10984,14 @@
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="F21" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="53" t="s">
+      <c r="G21" s="45"/>
+      <c r="H21" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="55"/>
+      <c r="I21" s="46"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -11213,6 +11213,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -11223,13 +11230,6 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:Q3 S2:AC3">
     <cfRule type="expression" dxfId="32" priority="5">
@@ -11268,40 +11268,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
@@ -11312,7 +11312,7 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="57">
+      <c r="A2" s="48">
         <v>46082</v>
       </c>
       <c r="B2" s="21">
@@ -11439,19 +11439,19 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AH2" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AL2" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="45"/>
+      <c r="AH2" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AL2" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="50"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1">
-      <c r="A3" s="57"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="21" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>SU</v>
@@ -11828,7 +11828,7 @@
       </c>
       <c r="AL5" s="6">
         <f>FEB!AK5</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AM5" s="15">
         <f t="shared" ref="AM5:AM11" si="5">COUNTIF(B5:AF5,"U")</f>
@@ -11836,7 +11836,7 @@
       </c>
       <c r="AN5" s="15">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1">
@@ -12834,14 +12834,14 @@
     <row r="15" spans="1:40" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:40">
       <c r="E16" s="42"/>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="59"/>
-      <c r="H16" s="46" t="s">
+      <c r="G16" s="56"/>
+      <c r="H16" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="47"/>
+      <c r="I16" s="62"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
@@ -12862,28 +12862,28 @@
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="60" t="s">
+      <c r="Z16" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="AA16" s="61"/>
-      <c r="AB16" s="61"/>
-      <c r="AC16" s="61"/>
-      <c r="AD16" s="61"/>
-      <c r="AE16" s="61"/>
-      <c r="AF16" s="61"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="59"/>
+      <c r="AE16" s="59"/>
+      <c r="AF16" s="59"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="58"/>
-      <c r="H17" s="48" t="s">
+      <c r="G17" s="52"/>
+      <c r="H17" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="49"/>
+      <c r="I17" s="63"/>
       <c r="M17" s="11" t="s">
         <v>35</v>
       </c>
@@ -12904,26 +12904,26 @@
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="63"/>
-      <c r="AB17" s="63"/>
-      <c r="AC17" s="63"/>
-      <c r="AD17" s="63"/>
-      <c r="AE17" s="63"/>
-      <c r="AF17" s="63"/>
+      <c r="Z17" s="60"/>
+      <c r="AA17" s="61"/>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="61"/>
+      <c r="AD17" s="61"/>
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="61"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="50" t="s">
+      <c r="G18" s="54"/>
+      <c r="H18" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="51"/>
+      <c r="I18" s="57"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -12944,26 +12944,26 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="63"/>
-      <c r="AC18" s="63"/>
-      <c r="AD18" s="63"/>
-      <c r="AE18" s="63"/>
-      <c r="AF18" s="63"/>
+      <c r="Z18" s="60"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="50" t="s">
+      <c r="G19" s="54"/>
+      <c r="H19" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="51"/>
+      <c r="I19" s="57"/>
       <c r="M19" s="31" t="s">
         <v>18</v>
       </c>
@@ -12989,14 +12989,14 @@
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="50" t="s">
+      <c r="G20" s="54"/>
+      <c r="H20" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="51"/>
+      <c r="I20" s="57"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -13022,14 +13022,14 @@
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="F21" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="53" t="s">
+      <c r="G21" s="45"/>
+      <c r="H21" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="55"/>
+      <c r="I21" s="46"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -13251,6 +13251,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -13261,13 +13268,6 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="AL2:AN2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:AF3">
     <cfRule type="expression" dxfId="29" priority="5">
@@ -13306,39 +13306,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="15" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
       <c r="AF1" s="12"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
@@ -13349,7 +13349,7 @@
       <c r="AM1" s="12"/>
     </row>
     <row r="2" spans="1:39" ht="15" customHeight="1">
-      <c r="A2" s="57">
+      <c r="A2" s="48">
         <v>46113</v>
       </c>
       <c r="B2" s="21">
@@ -13472,19 +13472,19 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AG2" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AK2" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
+      <c r="AG2" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="50"/>
+      <c r="AK2" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
     </row>
     <row r="3" spans="1:39" ht="15" customHeight="1">
-      <c r="A3" s="57"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="21" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>WE</v>
@@ -13851,7 +13851,7 @@
       </c>
       <c r="AK5" s="6">
         <f>MAR!AN5</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL5" s="15">
         <f t="shared" ref="AL5:AL11" si="5">COUNTIF(B5:AE5,"U")</f>
@@ -13859,7 +13859,7 @@
       </c>
       <c r="AM5" s="15">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="15" customHeight="1">
@@ -14831,14 +14831,14 @@
     <row r="15" spans="1:39" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:39">
       <c r="E16" s="42"/>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="59"/>
-      <c r="H16" s="46" t="s">
+      <c r="G16" s="56"/>
+      <c r="H16" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="47"/>
+      <c r="I16" s="62"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
@@ -14859,28 +14859,28 @@
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="60" t="s">
+      <c r="Z16" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="AA16" s="61"/>
-      <c r="AB16" s="61"/>
-      <c r="AC16" s="61"/>
-      <c r="AD16" s="61"/>
-      <c r="AE16" s="61"/>
-      <c r="AF16" s="61"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="59"/>
+      <c r="AE16" s="59"/>
+      <c r="AF16" s="59"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="58"/>
-      <c r="H17" s="48" t="s">
+      <c r="G17" s="52"/>
+      <c r="H17" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="49"/>
+      <c r="I17" s="63"/>
       <c r="M17" s="11" t="s">
         <v>35</v>
       </c>
@@ -14901,26 +14901,26 @@
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="63"/>
-      <c r="AB17" s="63"/>
-      <c r="AC17" s="63"/>
-      <c r="AD17" s="63"/>
-      <c r="AE17" s="63"/>
-      <c r="AF17" s="63"/>
+      <c r="Z17" s="60"/>
+      <c r="AA17" s="61"/>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="61"/>
+      <c r="AD17" s="61"/>
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="61"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="50" t="s">
+      <c r="G18" s="54"/>
+      <c r="H18" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="51"/>
+      <c r="I18" s="57"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -14941,26 +14941,26 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="63"/>
-      <c r="AC18" s="63"/>
-      <c r="AD18" s="63"/>
-      <c r="AE18" s="63"/>
-      <c r="AF18" s="63"/>
+      <c r="Z18" s="60"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="50" t="s">
+      <c r="G19" s="54"/>
+      <c r="H19" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="51"/>
+      <c r="I19" s="57"/>
       <c r="M19" s="31" t="s">
         <v>18</v>
       </c>
@@ -14986,14 +14986,14 @@
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="50" t="s">
+      <c r="G20" s="54"/>
+      <c r="H20" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="51"/>
+      <c r="I20" s="57"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -15019,14 +15019,14 @@
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="F21" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="53" t="s">
+      <c r="G21" s="45"/>
+      <c r="H21" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="55"/>
+      <c r="I21" s="46"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -15248,6 +15248,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -15258,13 +15265,6 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:C3 E2:E3 G2:Y3 AA2:AE3">
     <cfRule type="expression" dxfId="26" priority="3">
@@ -15303,47 +15303,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
       <c r="AJ1" s="12"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="57">
+      <c r="A2" s="48">
         <v>46143</v>
       </c>
       <c r="B2" s="23">
@@ -15470,14 +15470,14 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AH2" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
+      <c r="AH2" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
-      <c r="A3" s="57"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="23" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>FR</v>
@@ -15821,7 +15821,7 @@
       </c>
       <c r="AH5" s="6">
         <f>APR!AM5</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI5" s="15">
         <f t="shared" ref="AI5:AI11" si="9">COUNTIF(B5:AF5,"U")</f>
@@ -15829,7 +15829,7 @@
       </c>
       <c r="AJ5" s="15">
         <f t="shared" si="8"/>
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="15" customHeight="1">
@@ -16754,14 +16754,14 @@
     <row r="15" spans="1:36" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:36">
       <c r="E16" s="42"/>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="59"/>
-      <c r="H16" s="46" t="s">
+      <c r="G16" s="56"/>
+      <c r="H16" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="47"/>
+      <c r="I16" s="62"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
@@ -16782,28 +16782,28 @@
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="60" t="s">
+      <c r="Z16" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="AA16" s="61"/>
-      <c r="AB16" s="61"/>
-      <c r="AC16" s="61"/>
-      <c r="AD16" s="61"/>
-      <c r="AE16" s="61"/>
-      <c r="AF16" s="61"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="59"/>
+      <c r="AE16" s="59"/>
+      <c r="AF16" s="59"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="58"/>
-      <c r="H17" s="48" t="s">
+      <c r="G17" s="52"/>
+      <c r="H17" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="49"/>
+      <c r="I17" s="63"/>
       <c r="M17" s="11" t="s">
         <v>35</v>
       </c>
@@ -16824,26 +16824,26 @@
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="63"/>
-      <c r="AB17" s="63"/>
-      <c r="AC17" s="63"/>
-      <c r="AD17" s="63"/>
-      <c r="AE17" s="63"/>
-      <c r="AF17" s="63"/>
+      <c r="Z17" s="60"/>
+      <c r="AA17" s="61"/>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="61"/>
+      <c r="AD17" s="61"/>
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="61"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="50" t="s">
+      <c r="G18" s="54"/>
+      <c r="H18" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="51"/>
+      <c r="I18" s="57"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -16864,26 +16864,26 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="63"/>
-      <c r="AC18" s="63"/>
-      <c r="AD18" s="63"/>
-      <c r="AE18" s="63"/>
-      <c r="AF18" s="63"/>
+      <c r="Z18" s="60"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="50" t="s">
+      <c r="G19" s="54"/>
+      <c r="H19" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="51"/>
+      <c r="I19" s="57"/>
       <c r="M19" s="31" t="s">
         <v>18</v>
       </c>
@@ -16909,14 +16909,14 @@
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="50" t="s">
+      <c r="G20" s="54"/>
+      <c r="H20" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="51"/>
+      <c r="I20" s="57"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -16942,14 +16942,14 @@
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="F21" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="53" t="s">
+      <c r="G21" s="45"/>
+      <c r="H21" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="55"/>
+      <c r="I21" s="46"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -17171,6 +17171,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -17181,12 +17187,6 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B13:AF14">
     <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
@@ -17225,46 +17225,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
       <c r="AF1" s="12"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
     </row>
     <row r="2" spans="1:35" ht="15" customHeight="1">
-      <c r="A2" s="57">
+      <c r="A2" s="48">
         <v>46174</v>
       </c>
       <c r="B2" s="21">
@@ -17387,14 +17387,14 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AG2" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
+      <c r="AG2" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="50"/>
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1">
-      <c r="A3" s="57"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="21" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>MO</v>
@@ -17728,7 +17728,7 @@
       </c>
       <c r="AG5" s="6">
         <f>MAY!AJ5</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH5" s="15">
         <f t="shared" ref="AH5:AH11" si="3">COUNTIF(B5:AE5,"U")</f>
@@ -17736,7 +17736,7 @@
       </c>
       <c r="AI5" s="15">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="15" customHeight="1">
@@ -18635,14 +18635,14 @@
     <row r="15" spans="1:35" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:35">
       <c r="E16" s="42"/>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="59"/>
-      <c r="H16" s="46" t="s">
+      <c r="G16" s="56"/>
+      <c r="H16" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="47"/>
+      <c r="I16" s="62"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
@@ -18663,28 +18663,28 @@
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="60" t="s">
+      <c r="Z16" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="AA16" s="61"/>
-      <c r="AB16" s="61"/>
-      <c r="AC16" s="61"/>
-      <c r="AD16" s="61"/>
-      <c r="AE16" s="61"/>
-      <c r="AF16" s="61"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="59"/>
+      <c r="AE16" s="59"/>
+      <c r="AF16" s="59"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="58"/>
-      <c r="H17" s="48" t="s">
+      <c r="G17" s="52"/>
+      <c r="H17" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="49"/>
+      <c r="I17" s="63"/>
       <c r="M17" s="11" t="s">
         <v>35</v>
       </c>
@@ -18705,26 +18705,26 @@
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="63"/>
-      <c r="AB17" s="63"/>
-      <c r="AC17" s="63"/>
-      <c r="AD17" s="63"/>
-      <c r="AE17" s="63"/>
-      <c r="AF17" s="63"/>
+      <c r="Z17" s="60"/>
+      <c r="AA17" s="61"/>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="61"/>
+      <c r="AD17" s="61"/>
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="61"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="50" t="s">
+      <c r="G18" s="54"/>
+      <c r="H18" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="51"/>
+      <c r="I18" s="57"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -18745,26 +18745,26 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="63"/>
-      <c r="AC18" s="63"/>
-      <c r="AD18" s="63"/>
-      <c r="AE18" s="63"/>
-      <c r="AF18" s="63"/>
+      <c r="Z18" s="60"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="50" t="s">
+      <c r="G19" s="54"/>
+      <c r="H19" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="51"/>
+      <c r="I19" s="57"/>
       <c r="M19" s="31" t="s">
         <v>18</v>
       </c>
@@ -18790,14 +18790,14 @@
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="50" t="s">
+      <c r="G20" s="54"/>
+      <c r="H20" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="51"/>
+      <c r="I20" s="57"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -18823,14 +18823,14 @@
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="F21" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="53" t="s">
+      <c r="G21" s="45"/>
+      <c r="H21" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="55"/>
+      <c r="I21" s="46"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -19052,6 +19052,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -19062,12 +19068,6 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:D3 F2:J3 L2:X3 Z2:AE3">
     <cfRule type="expression" dxfId="20" priority="3">
@@ -19106,47 +19106,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
       <c r="AJ1" s="12"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="57">
+      <c r="A2" s="48">
         <v>46204</v>
       </c>
       <c r="B2" s="21">
@@ -19273,14 +19273,14 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AH2" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
+      <c r="AH2" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
-      <c r="A3" s="57"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="21" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>WE</v>
@@ -19624,7 +19624,7 @@
       </c>
       <c r="AH5" s="6">
         <f>JUN!AI5</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI5" s="15">
         <f t="shared" ref="AI5:AI11" si="3">COUNTIF(B5:AF5,"U")</f>
@@ -19632,7 +19632,7 @@
       </c>
       <c r="AJ5" s="15">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="15" customHeight="1">
@@ -20557,14 +20557,14 @@
     <row r="15" spans="1:36" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:36">
       <c r="E16" s="42"/>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="59"/>
-      <c r="H16" s="46" t="s">
+      <c r="G16" s="56"/>
+      <c r="H16" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="47"/>
+      <c r="I16" s="62"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
@@ -20585,28 +20585,28 @@
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="60" t="s">
+      <c r="Z16" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="AA16" s="61"/>
-      <c r="AB16" s="61"/>
-      <c r="AC16" s="61"/>
-      <c r="AD16" s="61"/>
-      <c r="AE16" s="61"/>
-      <c r="AF16" s="61"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="59"/>
+      <c r="AE16" s="59"/>
+      <c r="AF16" s="59"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="58"/>
-      <c r="H17" s="48" t="s">
+      <c r="G17" s="52"/>
+      <c r="H17" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="49"/>
+      <c r="I17" s="63"/>
       <c r="M17" s="11" t="s">
         <v>35</v>
       </c>
@@ -20627,26 +20627,26 @@
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="63"/>
-      <c r="AB17" s="63"/>
-      <c r="AC17" s="63"/>
-      <c r="AD17" s="63"/>
-      <c r="AE17" s="63"/>
-      <c r="AF17" s="63"/>
+      <c r="Z17" s="60"/>
+      <c r="AA17" s="61"/>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="61"/>
+      <c r="AD17" s="61"/>
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="61"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="50" t="s">
+      <c r="G18" s="54"/>
+      <c r="H18" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="51"/>
+      <c r="I18" s="57"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -20667,26 +20667,26 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="63"/>
-      <c r="AC18" s="63"/>
-      <c r="AD18" s="63"/>
-      <c r="AE18" s="63"/>
-      <c r="AF18" s="63"/>
+      <c r="Z18" s="60"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="50" t="s">
+      <c r="G19" s="54"/>
+      <c r="H19" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="51"/>
+      <c r="I19" s="57"/>
       <c r="M19" s="31" t="s">
         <v>18</v>
       </c>
@@ -20712,14 +20712,14 @@
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="50" t="s">
+      <c r="G20" s="54"/>
+      <c r="H20" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="51"/>
+      <c r="I20" s="57"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -20745,14 +20745,14 @@
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="F21" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="53" t="s">
+      <c r="G21" s="45"/>
+      <c r="H21" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="55"/>
+      <c r="I21" s="46"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -20974,6 +20974,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -20984,12 +20990,6 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:AF3">
     <cfRule type="expression" dxfId="17" priority="3">
@@ -21028,47 +21028,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
       <c r="AJ1" s="12"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="57">
+      <c r="A2" s="48">
         <v>46235</v>
       </c>
       <c r="B2" s="21">
@@ -21195,14 +21195,14 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AH2" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
+      <c r="AH2" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
-      <c r="A3" s="57"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="21" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>SA</v>
@@ -21546,7 +21546,7 @@
       </c>
       <c r="AH5" s="6">
         <f>JUL!AJ5</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI5" s="15">
         <f t="shared" ref="AI5:AI11" si="3">COUNTIF(B5:AF5,"U")</f>
@@ -21554,7 +21554,7 @@
       </c>
       <c r="AJ5" s="15">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="15" customHeight="1">
@@ -22479,14 +22479,14 @@
     <row r="15" spans="1:36" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:36">
       <c r="E16" s="42"/>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="59"/>
-      <c r="H16" s="46" t="s">
+      <c r="G16" s="56"/>
+      <c r="H16" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="47"/>
+      <c r="I16" s="62"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
@@ -22507,28 +22507,28 @@
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="60" t="s">
+      <c r="Z16" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="AA16" s="61"/>
-      <c r="AB16" s="61"/>
-      <c r="AC16" s="61"/>
-      <c r="AD16" s="61"/>
-      <c r="AE16" s="61"/>
-      <c r="AF16" s="61"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="59"/>
+      <c r="AE16" s="59"/>
+      <c r="AF16" s="59"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="58"/>
-      <c r="H17" s="48" t="s">
+      <c r="G17" s="52"/>
+      <c r="H17" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="49"/>
+      <c r="I17" s="63"/>
       <c r="M17" s="11" t="s">
         <v>35</v>
       </c>
@@ -22549,26 +22549,26 @@
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="63"/>
-      <c r="AB17" s="63"/>
-      <c r="AC17" s="63"/>
-      <c r="AD17" s="63"/>
-      <c r="AE17" s="63"/>
-      <c r="AF17" s="63"/>
+      <c r="Z17" s="60"/>
+      <c r="AA17" s="61"/>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="61"/>
+      <c r="AD17" s="61"/>
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="61"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="50" t="s">
+      <c r="G18" s="54"/>
+      <c r="H18" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="51"/>
+      <c r="I18" s="57"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -22589,26 +22589,26 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="63"/>
-      <c r="AC18" s="63"/>
-      <c r="AD18" s="63"/>
-      <c r="AE18" s="63"/>
-      <c r="AF18" s="63"/>
+      <c r="Z18" s="60"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="50" t="s">
+      <c r="G19" s="54"/>
+      <c r="H19" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="51"/>
+      <c r="I19" s="57"/>
       <c r="M19" s="31" t="s">
         <v>18</v>
       </c>
@@ -22634,14 +22634,14 @@
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="50" t="s">
+      <c r="G20" s="54"/>
+      <c r="H20" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="51"/>
+      <c r="I20" s="57"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -22667,14 +22667,14 @@
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="F21" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="53" t="s">
+      <c r="G21" s="45"/>
+      <c r="H21" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="55"/>
+      <c r="I21" s="46"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -22896,6 +22896,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -22906,12 +22912,6 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:O3 Q2:AF3">
     <cfRule type="expression" dxfId="14" priority="3">
@@ -22950,46 +22950,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
       <c r="AF1" s="12"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
     </row>
     <row r="2" spans="1:35" ht="15" customHeight="1">
-      <c r="A2" s="57">
+      <c r="A2" s="48">
         <v>46266</v>
       </c>
       <c r="B2" s="21">
@@ -23112,14 +23112,14 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AG2" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
+      <c r="AG2" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="50"/>
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1">
-      <c r="A3" s="57"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="21" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>TU</v>
@@ -23453,7 +23453,7 @@
       </c>
       <c r="AG5" s="6">
         <f>AUG!AJ5</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH5" s="15">
         <f t="shared" ref="AH5:AH11" si="3">COUNTIF(B5:AE5,"U")</f>
@@ -23461,7 +23461,7 @@
       </c>
       <c r="AI5" s="15">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="15" customHeight="1">
@@ -24360,14 +24360,14 @@
     <row r="15" spans="1:35" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:35">
       <c r="E16" s="42"/>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="59"/>
-      <c r="H16" s="46" t="s">
+      <c r="G16" s="56"/>
+      <c r="H16" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="47"/>
+      <c r="I16" s="62"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
@@ -24388,28 +24388,28 @@
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="60" t="s">
+      <c r="Z16" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="AA16" s="61"/>
-      <c r="AB16" s="61"/>
-      <c r="AC16" s="61"/>
-      <c r="AD16" s="61"/>
-      <c r="AE16" s="61"/>
-      <c r="AF16" s="61"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="59"/>
+      <c r="AE16" s="59"/>
+      <c r="AF16" s="59"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="58"/>
-      <c r="H17" s="48" t="s">
+      <c r="G17" s="52"/>
+      <c r="H17" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="49"/>
+      <c r="I17" s="63"/>
       <c r="M17" s="11" t="s">
         <v>35</v>
       </c>
@@ -24430,26 +24430,26 @@
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="63"/>
-      <c r="AB17" s="63"/>
-      <c r="AC17" s="63"/>
-      <c r="AD17" s="63"/>
-      <c r="AE17" s="63"/>
-      <c r="AF17" s="63"/>
+      <c r="Z17" s="60"/>
+      <c r="AA17" s="61"/>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="61"/>
+      <c r="AD17" s="61"/>
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="61"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="50" t="s">
+      <c r="G18" s="54"/>
+      <c r="H18" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="51"/>
+      <c r="I18" s="57"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -24470,26 +24470,26 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="63"/>
-      <c r="AC18" s="63"/>
-      <c r="AD18" s="63"/>
-      <c r="AE18" s="63"/>
-      <c r="AF18" s="63"/>
+      <c r="Z18" s="60"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="50" t="s">
+      <c r="G19" s="54"/>
+      <c r="H19" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="51"/>
+      <c r="I19" s="57"/>
       <c r="M19" s="31" t="s">
         <v>18</v>
       </c>
@@ -24515,14 +24515,14 @@
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="50" t="s">
+      <c r="G20" s="54"/>
+      <c r="H20" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="51"/>
+      <c r="I20" s="57"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -24548,14 +24548,14 @@
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="F21" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="53" t="s">
+      <c r="G21" s="45"/>
+      <c r="H21" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="55"/>
+      <c r="I21" s="46"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -24777,6 +24777,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -24787,12 +24793,6 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:AE3">
     <cfRule type="expression" dxfId="11" priority="3">
@@ -24813,68 +24813,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="fa453329-a4c9-4120-b786-6a0f9fa17d90">
-      <UserInfo>
-        <DisplayName>SANTOS, SOFIA</DisplayName>
-        <AccountId>28</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>CASTRO, MARIANA</DisplayName>
-        <AccountId>116</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>GASPAR, DIANA</DisplayName>
-        <AccountId>41</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>TATO, ELISABETE</DisplayName>
-        <AccountId>80</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>FONTES, ALICE</DisplayName>
-        <AccountId>88</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>SILVA SANTOS, NUNO MIGUEL</DisplayName>
-        <AccountId>22</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>BASILIO, BRUNO</DisplayName>
-        <AccountId>65</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>MIRANDA, ANTONIO</DisplayName>
-        <AccountId>356</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <TaxCatchAll xmlns="fa453329-a4c9-4120-b786-6a0f9fa17d90" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8c3af6a4-7f71-4dc2-99e7-9db1cbaccb2c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001EE2D3878C914646AFDAF8DB79C9CBFF" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2cdea53bbbbe1c592d4ed0089fc04525">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c3af6a4-7f71-4dc2-99e7-9db1cbaccb2c" xmlns:ns3="fa453329-a4c9-4120-b786-6a0f9fa17d90" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c0fb91ccd09afdd2cf070cd91e44e663" ns2:_="" ns3:_="">
     <xsd:import namespace="8c3af6a4-7f71-4dc2-99e7-9db1cbaccb2c"/>
@@ -25115,8 +25053,70 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="fa453329-a4c9-4120-b786-6a0f9fa17d90">
+      <UserInfo>
+        <DisplayName>SANTOS, SOFIA</DisplayName>
+        <AccountId>28</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>CASTRO, MARIANA</DisplayName>
+        <AccountId>116</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>GASPAR, DIANA</DisplayName>
+        <AccountId>41</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>TATO, ELISABETE</DisplayName>
+        <AccountId>80</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>FONTES, ALICE</DisplayName>
+        <AccountId>88</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>SILVA SANTOS, NUNO MIGUEL</DisplayName>
+        <AccountId>22</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>BASILIO, BRUNO</DisplayName>
+        <AccountId>65</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>MIRANDA, ANTONIO</DisplayName>
+        <AccountId>356</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <TaxCatchAll xmlns="fa453329-a4c9-4120-b786-6a0f9fa17d90" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8c3af6a4-7f71-4dc2-99e7-9db1cbaccb2c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AED20691-38BD-4744-A2B0-0BB0E052B916}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29B84BB2-0D53-4A94-BCB9-BA0A420A2CD1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25124,7 +25124,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29B84BB2-0D53-4A94-BCB9-BA0A420A2CD1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AED20691-38BD-4744-A2B0-0BB0E052B916}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/files/IT_2026.xlsx
+++ b/files/IT_2026.xlsx
@@ -11,7 +11,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:10001_{991245FC-07BC-4015-BDEF-4EED57848F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAN" sheetId="86" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4036" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4036" uniqueCount="83">
   <si>
     <t>LGSP - Lufthansa Ground Services Portugal              NIF : 509 842 593          Atividade: CAE 52230.R3           Sede e local de trabalho: Avenida da Boavista ED.Burgo, 1837 sala 13.4/  Horario de Funcionamento: 24/7   IRT : Nao Aplicavel</t>
   </si>
@@ -119,7 +119,7 @@
     <t>JOSE ALEXANDRE FERREIRA</t>
   </si>
   <si>
-    <t>TR</t>
+    <t>L</t>
   </si>
   <si>
     <t>RICHARD JESUS</t>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>K6</t>
+  </si>
+  <si>
+    <t>TR</t>
   </si>
   <si>
     <t>Training</t>
@@ -365,7 +368,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -489,6 +492,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,7 +688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -802,6 +811,33 @@
     <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -817,31 +853,10 @@
     <xf numFmtId="17" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -856,10 +871,7 @@
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1591,9 +1603,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323592CF-5D0B-44CE-82DE-EA9D032000A0}">
   <dimension ref="A1:AN30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="AE5" sqref="AE5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AK18" sqref="AK18"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -1606,40 +1618,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
@@ -1650,7 +1662,7 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="48">
+      <c r="A2" s="57">
         <v>46023</v>
       </c>
       <c r="B2" s="23">
@@ -1777,19 +1789,19 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AH2" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AL2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
+      <c r="AH2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AL2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="23" t="str">
         <f t="shared" ref="B3:AF3" si="1">UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>TH</v>
@@ -2041,7 +2053,7 @@
         <f t="shared" ref="AJ4:AJ11" si="2">AH4-AI4</f>
         <v>3</v>
       </c>
-      <c r="AL4" s="6">
+      <c r="AL4" s="43">
         <v>22</v>
       </c>
       <c r="AM4" s="15">
@@ -2161,7 +2173,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL5" s="6">
+      <c r="AL5" s="43">
         <v>22</v>
       </c>
       <c r="AM5" s="15">
@@ -2281,8 +2293,8 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="AL6" s="6">
-        <v>22</v>
+      <c r="AL6" s="64">
+        <v>14</v>
       </c>
       <c r="AM6" s="15">
         <f t="shared" si="5"/>
@@ -2290,7 +2302,7 @@
       </c>
       <c r="AN6" s="15">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="15" customHeight="1">
@@ -2401,7 +2413,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL7" s="6">
+      <c r="AL7" s="43">
         <v>22</v>
       </c>
       <c r="AM7" s="15">
@@ -2521,8 +2533,8 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="AL8" s="6">
-        <v>22</v>
+      <c r="AL8" s="43">
+        <v>23</v>
       </c>
       <c r="AM8" s="15">
         <f t="shared" si="5"/>
@@ -2530,7 +2542,7 @@
       </c>
       <c r="AN8" s="15">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1">
@@ -2641,8 +2653,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL9" s="6">
-        <v>22</v>
+      <c r="AL9" s="43">
+        <v>23</v>
       </c>
       <c r="AM9" s="15">
         <f t="shared" si="5"/>
@@ -2650,7 +2662,7 @@
       </c>
       <c r="AN9" s="15">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1">
@@ -2763,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="13"/>
-      <c r="AL10" s="6">
+      <c r="AL10" s="43">
         <v>22</v>
       </c>
       <c r="AM10" s="15">
@@ -2883,8 +2895,8 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AL11" s="6">
-        <v>22</v>
+      <c r="AL11" s="64">
+        <v>15</v>
       </c>
       <c r="AM11" s="15">
         <f t="shared" si="5"/>
@@ -2892,7 +2904,7 @@
       </c>
       <c r="AN11" s="15">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:40">
@@ -3156,14 +3168,14 @@
     <row r="15" spans="1:40" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:40">
       <c r="E16" s="42"/>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55" t="s">
+      <c r="G16" s="59"/>
+      <c r="H16" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="I16" s="47"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
@@ -3184,28 +3196,28 @@
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="58" t="s">
+      <c r="Z16" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51" t="s">
+      <c r="G17" s="58"/>
+      <c r="H17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="I17" s="49"/>
       <c r="M17" s="11" t="s">
         <v>35</v>
       </c>
@@ -3226,26 +3238,26 @@
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="57"/>
+      <c r="I18" s="51"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -3266,26 +3278,26 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="57"/>
+      <c r="I19" s="51"/>
       <c r="M19" s="31" t="s">
         <v>18</v>
       </c>
@@ -3311,14 +3323,14 @@
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="57"/>
+      <c r="I20" s="51"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -3344,14 +3356,14 @@
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="55"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -3441,17 +3453,17 @@
     </row>
     <row r="25" spans="5:32">
       <c r="M25" s="34" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="N25" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
       <c r="R25" s="29"/>
       <c r="S25" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T25" s="17" t="s">
         <v>56</v>
@@ -3463,17 +3475,17 @@
     </row>
     <row r="26" spans="5:32">
       <c r="M26" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N26" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O26" s="29"/>
       <c r="P26" s="29"/>
       <c r="Q26" s="29"/>
       <c r="R26" s="29"/>
       <c r="S26" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T26" s="17" t="s">
         <v>56</v>
@@ -3485,17 +3497,17 @@
     </row>
     <row r="27" spans="5:32">
       <c r="M27" s="36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N27" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O27" s="29"/>
       <c r="P27" s="29"/>
       <c r="Q27" s="29"/>
       <c r="R27" s="29"/>
       <c r="S27" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T27" s="17" t="s">
         <v>56</v>
@@ -3507,17 +3519,17 @@
     </row>
     <row r="28" spans="5:32">
       <c r="M28" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N28" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O28" s="30"/>
       <c r="P28" s="30"/>
       <c r="Q28" s="30"/>
       <c r="R28" s="30"/>
       <c r="S28" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T28" s="17" t="s">
         <v>56</v>
@@ -3529,17 +3541,17 @@
     </row>
     <row r="29" spans="5:32">
       <c r="M29" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N29" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O29" s="29"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="29"/>
       <c r="R29" s="29"/>
       <c r="S29" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T29" s="17" t="s">
         <v>56</v>
@@ -3551,20 +3563,20 @@
     </row>
     <row r="30" spans="5:32">
       <c r="M30" s="37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N30" s="38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O30" s="39"/>
       <c r="P30" s="39"/>
       <c r="Q30" s="39"/>
       <c r="R30" s="39"/>
       <c r="S30" s="40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T30" s="38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U30" s="39"/>
       <c r="V30" s="39"/>
@@ -3573,12 +3585,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AL2:AN2"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="A1:AF1"/>
@@ -3590,6 +3596,12 @@
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="Z16:AF18"/>
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <conditionalFormatting sqref="B13:AF14">
     <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
@@ -3628,47 +3640,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
       <c r="AJ1" s="12"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="48">
+      <c r="A2" s="57">
         <v>46296</v>
       </c>
       <c r="B2" s="21">
@@ -3795,14 +3807,14 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AH2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
+      <c r="AH2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="21" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>TH</v>
@@ -4036,7 +4048,7 @@
       </c>
       <c r="AH4" s="6">
         <f>SEP!AI4</f>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AI4" s="15">
         <f>COUNTIF(B4:AF4,"U")</f>
@@ -4044,7 +4056,7 @@
       </c>
       <c r="AJ4" s="15">
         <f t="shared" ref="AJ4:AJ11" si="2">AH4-AI4</f>
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="15" customHeight="1">
@@ -4256,7 +4268,7 @@
       </c>
       <c r="AH6" s="6">
         <f>SEP!AI6</f>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AI6" s="15">
         <f t="shared" si="3"/>
@@ -4264,7 +4276,7 @@
       </c>
       <c r="AJ6" s="15">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="15" customHeight="1">
@@ -4476,7 +4488,7 @@
       </c>
       <c r="AH8" s="6">
         <f>SEP!AI8</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI8" s="15">
         <f t="shared" si="3"/>
@@ -4484,7 +4496,7 @@
       </c>
       <c r="AJ8" s="15">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="15" customHeight="1">
@@ -4586,7 +4598,7 @@
       </c>
       <c r="AH9" s="6">
         <f>SEP!AI9</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI9" s="15">
         <f t="shared" si="3"/>
@@ -4594,7 +4606,7 @@
       </c>
       <c r="AJ9" s="15">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:36" s="16" customFormat="1" ht="15" customHeight="1">
@@ -4807,7 +4819,7 @@
       </c>
       <c r="AH11" s="6">
         <f>SEP!AI11</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AI11" s="15">
         <f>COUNTIF(B11:AF11,"U")</f>
@@ -4815,7 +4827,7 @@
       </c>
       <c r="AJ11" s="15">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -5079,14 +5091,14 @@
     <row r="15" spans="1:36" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:36">
       <c r="E16" s="42"/>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55" t="s">
+      <c r="G16" s="59"/>
+      <c r="H16" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="I16" s="47"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
@@ -5107,28 +5119,28 @@
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="58" t="s">
+      <c r="Z16" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51" t="s">
+      <c r="G17" s="58"/>
+      <c r="H17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="I17" s="49"/>
       <c r="M17" s="11" t="s">
         <v>35</v>
       </c>
@@ -5149,26 +5161,26 @@
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="57"/>
+      <c r="I18" s="51"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -5189,26 +5201,26 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="57"/>
+      <c r="I19" s="51"/>
       <c r="M19" s="31" t="s">
         <v>18</v>
       </c>
@@ -5234,14 +5246,14 @@
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="57"/>
+      <c r="I20" s="51"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -5267,14 +5279,14 @@
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="55"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -5364,17 +5376,17 @@
     </row>
     <row r="25" spans="5:32">
       <c r="M25" s="34" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="N25" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
       <c r="R25" s="29"/>
       <c r="S25" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T25" s="17" t="s">
         <v>56</v>
@@ -5386,17 +5398,17 @@
     </row>
     <row r="26" spans="5:32">
       <c r="M26" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N26" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O26" s="29"/>
       <c r="P26" s="29"/>
       <c r="Q26" s="29"/>
       <c r="R26" s="29"/>
       <c r="S26" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T26" s="17" t="s">
         <v>56</v>
@@ -5408,17 +5420,17 @@
     </row>
     <row r="27" spans="5:32">
       <c r="M27" s="36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N27" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O27" s="29"/>
       <c r="P27" s="29"/>
       <c r="Q27" s="29"/>
       <c r="R27" s="29"/>
       <c r="S27" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T27" s="17" t="s">
         <v>56</v>
@@ -5430,17 +5442,17 @@
     </row>
     <row r="28" spans="5:32">
       <c r="M28" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N28" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O28" s="30"/>
       <c r="P28" s="30"/>
       <c r="Q28" s="30"/>
       <c r="R28" s="30"/>
       <c r="S28" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T28" s="17" t="s">
         <v>56</v>
@@ -5452,17 +5464,17 @@
     </row>
     <row r="29" spans="5:32">
       <c r="M29" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N29" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O29" s="29"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="29"/>
       <c r="R29" s="29"/>
       <c r="S29" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T29" s="17" t="s">
         <v>56</v>
@@ -5474,20 +5486,20 @@
     </row>
     <row r="30" spans="5:32">
       <c r="M30" s="37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N30" s="38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O30" s="39"/>
       <c r="P30" s="39"/>
       <c r="Q30" s="39"/>
       <c r="R30" s="39"/>
       <c r="S30" s="40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T30" s="38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U30" s="39"/>
       <c r="V30" s="39"/>
@@ -5496,12 +5508,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -5512,6 +5518,12 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:E3 G2:AF3">
     <cfRule type="expression" dxfId="8" priority="3">
@@ -5550,46 +5562,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
       <c r="AF1" s="12"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
     </row>
     <row r="2" spans="1:35" ht="15" customHeight="1">
-      <c r="A2" s="48">
+      <c r="A2" s="57">
         <v>46327</v>
       </c>
       <c r="B2" s="23">
@@ -5712,14 +5724,14 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AG2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
+      <c r="AG2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="23" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>SU</v>
@@ -5946,7 +5958,7 @@
       </c>
       <c r="AG4" s="6">
         <f>OCT!AJ4</f>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AH4" s="15">
         <f>COUNTIF(B4:AE4,"U")</f>
@@ -5954,7 +5966,7 @@
       </c>
       <c r="AI4" s="15">
         <f t="shared" ref="AI4:AI11" si="2">AG4-AH4</f>
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="15" customHeight="1">
@@ -6160,7 +6172,7 @@
       </c>
       <c r="AG6" s="6">
         <f>OCT!AJ6</f>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AH6" s="15">
         <f t="shared" si="3"/>
@@ -6168,7 +6180,7 @@
       </c>
       <c r="AI6" s="15">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="15" customHeight="1">
@@ -6374,7 +6386,7 @@
       </c>
       <c r="AG8" s="6">
         <f>OCT!AJ8</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH8" s="15">
         <f t="shared" si="3"/>
@@ -6382,7 +6394,7 @@
       </c>
       <c r="AI8" s="15">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="15" customHeight="1">
@@ -6481,7 +6493,7 @@
       </c>
       <c r="AG9" s="6">
         <f>OCT!AJ9</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH9" s="15">
         <f t="shared" si="3"/>
@@ -6489,7 +6501,7 @@
       </c>
       <c r="AI9" s="15">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1">
@@ -6696,7 +6708,7 @@
       </c>
       <c r="AG11" s="6">
         <f>OCT!AJ11</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AH11" s="15">
         <f>COUNTIF(B11:AE11,"U")</f>
@@ -6704,7 +6716,7 @@
       </c>
       <c r="AI11" s="15">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -6960,14 +6972,14 @@
     <row r="15" spans="1:35" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:35">
       <c r="E16" s="42"/>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55" t="s">
+      <c r="G16" s="59"/>
+      <c r="H16" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="I16" s="47"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
@@ -6988,28 +7000,28 @@
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="58" t="s">
+      <c r="Z16" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51" t="s">
+      <c r="G17" s="58"/>
+      <c r="H17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="I17" s="49"/>
       <c r="M17" s="11" t="s">
         <v>35</v>
       </c>
@@ -7030,26 +7042,26 @@
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="57"/>
+      <c r="I18" s="51"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -7070,26 +7082,26 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="57"/>
+      <c r="I19" s="51"/>
       <c r="M19" s="31" t="s">
         <v>18</v>
       </c>
@@ -7115,14 +7127,14 @@
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="57"/>
+      <c r="I20" s="51"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -7148,14 +7160,14 @@
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="55"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -7245,17 +7257,17 @@
     </row>
     <row r="25" spans="5:32">
       <c r="M25" s="34" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="N25" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
       <c r="R25" s="29"/>
       <c r="S25" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T25" s="17" t="s">
         <v>56</v>
@@ -7267,17 +7279,17 @@
     </row>
     <row r="26" spans="5:32">
       <c r="M26" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N26" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O26" s="29"/>
       <c r="P26" s="29"/>
       <c r="Q26" s="29"/>
       <c r="R26" s="29"/>
       <c r="S26" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T26" s="17" t="s">
         <v>56</v>
@@ -7289,17 +7301,17 @@
     </row>
     <row r="27" spans="5:32">
       <c r="M27" s="36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N27" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O27" s="29"/>
       <c r="P27" s="29"/>
       <c r="Q27" s="29"/>
       <c r="R27" s="29"/>
       <c r="S27" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T27" s="17" t="s">
         <v>56</v>
@@ -7311,17 +7323,17 @@
     </row>
     <row r="28" spans="5:32">
       <c r="M28" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N28" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O28" s="30"/>
       <c r="P28" s="30"/>
       <c r="Q28" s="30"/>
       <c r="R28" s="30"/>
       <c r="S28" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T28" s="17" t="s">
         <v>56</v>
@@ -7333,17 +7345,17 @@
     </row>
     <row r="29" spans="5:32">
       <c r="M29" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N29" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O29" s="29"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="29"/>
       <c r="R29" s="29"/>
       <c r="S29" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T29" s="17" t="s">
         <v>56</v>
@@ -7355,20 +7367,20 @@
     </row>
     <row r="30" spans="5:32">
       <c r="M30" s="37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N30" s="38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O30" s="39"/>
       <c r="P30" s="39"/>
       <c r="Q30" s="39"/>
       <c r="R30" s="39"/>
       <c r="S30" s="40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T30" s="38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U30" s="39"/>
       <c r="V30" s="39"/>
@@ -7377,12 +7389,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -7393,6 +7399,12 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B13:AE14">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -7431,47 +7443,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
       <c r="AJ1" s="12"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="48">
+      <c r="A2" s="57">
         <v>46357</v>
       </c>
       <c r="B2" s="23">
@@ -7598,14 +7610,14 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AH2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
+      <c r="AH2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="23" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>TU</v>
@@ -7839,7 +7851,7 @@
       </c>
       <c r="AH4" s="6">
         <f>NOV!AI4</f>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AI4" s="15">
         <f>COUNTIF(B4:AF4,"U")</f>
@@ -7847,7 +7859,7 @@
       </c>
       <c r="AJ4" s="15">
         <f t="shared" ref="AJ4:AJ11" si="2">AH4-AI4</f>
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="15" customHeight="1">
@@ -8059,7 +8071,7 @@
       </c>
       <c r="AH6" s="6">
         <f>NOV!AI6</f>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AI6" s="15">
         <f t="shared" si="3"/>
@@ -8067,7 +8079,7 @@
       </c>
       <c r="AJ6" s="15">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="15" customHeight="1">
@@ -8279,7 +8291,7 @@
       </c>
       <c r="AH8" s="6">
         <f>NOV!AI8</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI8" s="15">
         <f t="shared" si="3"/>
@@ -8287,7 +8299,7 @@
       </c>
       <c r="AJ8" s="15">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="15" customHeight="1">
@@ -8389,7 +8401,7 @@
       </c>
       <c r="AH9" s="6">
         <f>NOV!AI9</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI9" s="15">
         <f t="shared" si="3"/>
@@ -8397,7 +8409,7 @@
       </c>
       <c r="AJ9" s="15">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:36" s="16" customFormat="1" ht="15" customHeight="1">
@@ -8610,7 +8622,7 @@
       </c>
       <c r="AH11" s="6">
         <f>NOV!AI11</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AI11" s="15">
         <f t="shared" si="3"/>
@@ -8618,7 +8630,7 @@
       </c>
       <c r="AJ11" s="15">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -8882,14 +8894,14 @@
     <row r="15" spans="1:36" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:36">
       <c r="E16" s="42"/>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55" t="s">
+      <c r="G16" s="59"/>
+      <c r="H16" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="I16" s="47"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
@@ -8910,28 +8922,28 @@
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="58" t="s">
+      <c r="Z16" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51" t="s">
+      <c r="G17" s="58"/>
+      <c r="H17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="I17" s="49"/>
       <c r="M17" s="11" t="s">
         <v>35</v>
       </c>
@@ -8952,26 +8964,26 @@
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="57"/>
+      <c r="I18" s="51"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -8992,26 +9004,26 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="57"/>
+      <c r="I19" s="51"/>
       <c r="M19" s="31" t="s">
         <v>18</v>
       </c>
@@ -9037,14 +9049,14 @@
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="57"/>
+      <c r="I20" s="51"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -9070,14 +9082,14 @@
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="55"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -9167,17 +9179,17 @@
     </row>
     <row r="25" spans="5:32">
       <c r="M25" s="34" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="N25" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
       <c r="R25" s="29"/>
       <c r="S25" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T25" s="17" t="s">
         <v>56</v>
@@ -9189,17 +9201,17 @@
     </row>
     <row r="26" spans="5:32">
       <c r="M26" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N26" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O26" s="29"/>
       <c r="P26" s="29"/>
       <c r="Q26" s="29"/>
       <c r="R26" s="29"/>
       <c r="S26" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T26" s="17" t="s">
         <v>56</v>
@@ -9211,17 +9223,17 @@
     </row>
     <row r="27" spans="5:32">
       <c r="M27" s="36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N27" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O27" s="29"/>
       <c r="P27" s="29"/>
       <c r="Q27" s="29"/>
       <c r="R27" s="29"/>
       <c r="S27" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T27" s="17" t="s">
         <v>56</v>
@@ -9233,17 +9245,17 @@
     </row>
     <row r="28" spans="5:32">
       <c r="M28" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N28" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O28" s="30"/>
       <c r="P28" s="30"/>
       <c r="Q28" s="30"/>
       <c r="R28" s="30"/>
       <c r="S28" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T28" s="17" t="s">
         <v>56</v>
@@ -9255,17 +9267,17 @@
     </row>
     <row r="29" spans="5:32">
       <c r="M29" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N29" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O29" s="29"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="29"/>
       <c r="R29" s="29"/>
       <c r="S29" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T29" s="17" t="s">
         <v>56</v>
@@ -9277,20 +9289,20 @@
     </row>
     <row r="30" spans="5:32">
       <c r="M30" s="37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N30" s="38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O30" s="39"/>
       <c r="P30" s="39"/>
       <c r="Q30" s="39"/>
       <c r="R30" s="39"/>
       <c r="S30" s="40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T30" s="38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U30" s="39"/>
       <c r="V30" s="39"/>
@@ -9299,12 +9311,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -9315,6 +9321,12 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B13:AF14">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -9338,7 +9350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E901B9E-1F8C-4966-83E5-6829517B3DD1}">
   <dimension ref="A1:AK30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="F5" sqref="F5:G5"/>
       <selection pane="bottomLeft"/>
@@ -9353,37 +9365,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
       <c r="AD1" s="12"/>
       <c r="AE1" s="12"/>
       <c r="AF1" s="12"/>
@@ -9394,7 +9406,7 @@
       <c r="AK1" s="12"/>
     </row>
     <row r="2" spans="1:37" ht="15" customHeight="1">
-      <c r="A2" s="48">
+      <c r="A2" s="57">
         <v>46054</v>
       </c>
       <c r="B2" s="21">
@@ -9509,19 +9521,19 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="AE2" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="50"/>
-      <c r="AI2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
+      <c r="AE2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AI2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
     </row>
     <row r="3" spans="1:37" ht="15" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="21" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>SU</v>
@@ -9981,7 +9993,7 @@
       </c>
       <c r="AI6" s="6">
         <f>JAN!AN6</f>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AJ6" s="15">
         <f t="shared" si="5"/>
@@ -9989,7 +10001,7 @@
       </c>
       <c r="AK6" s="15">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:37" ht="15" customHeight="1">
@@ -10207,7 +10219,7 @@
       </c>
       <c r="AI8" s="6">
         <f>JAN!AN8</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ8" s="15">
         <f t="shared" si="5"/>
@@ -10215,7 +10227,7 @@
       </c>
       <c r="AK8" s="15">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:37" ht="15" customHeight="1">
@@ -10320,7 +10332,7 @@
       </c>
       <c r="AI9" s="6">
         <f>JAN!AN9</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ9" s="15">
         <f t="shared" si="5"/>
@@ -10328,7 +10340,7 @@
       </c>
       <c r="AK9" s="15">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:37" s="16" customFormat="1" ht="15" customHeight="1">
@@ -10548,7 +10560,7 @@
       </c>
       <c r="AI11" s="6">
         <f>JAN!AN11</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AJ11" s="15">
         <f>COUNTIF(B11:AC11,"U")</f>
@@ -10556,7 +10568,7 @@
       </c>
       <c r="AK11" s="15">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:37">
@@ -10796,14 +10808,14 @@
     <row r="15" spans="1:37" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:37">
       <c r="E16" s="42"/>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55" t="s">
+      <c r="G16" s="59"/>
+      <c r="H16" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="I16" s="47"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
@@ -10824,28 +10836,28 @@
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="58" t="s">
+      <c r="Z16" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51" t="s">
+      <c r="G17" s="58"/>
+      <c r="H17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="I17" s="49"/>
       <c r="M17" s="11" t="s">
         <v>35</v>
       </c>
@@ -10866,26 +10878,26 @@
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="57"/>
+      <c r="I18" s="51"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -10906,26 +10918,26 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="57"/>
+      <c r="I19" s="51"/>
       <c r="M19" s="31" t="s">
         <v>18</v>
       </c>
@@ -10951,14 +10963,14 @@
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="57"/>
+      <c r="I20" s="51"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -10984,14 +10996,14 @@
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="55"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -11081,17 +11093,17 @@
     </row>
     <row r="25" spans="5:32">
       <c r="M25" s="34" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="N25" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
       <c r="R25" s="29"/>
       <c r="S25" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T25" s="17" t="s">
         <v>56</v>
@@ -11103,17 +11115,17 @@
     </row>
     <row r="26" spans="5:32">
       <c r="M26" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N26" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O26" s="29"/>
       <c r="P26" s="29"/>
       <c r="Q26" s="29"/>
       <c r="R26" s="29"/>
       <c r="S26" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T26" s="17" t="s">
         <v>56</v>
@@ -11125,17 +11137,17 @@
     </row>
     <row r="27" spans="5:32">
       <c r="M27" s="36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N27" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O27" s="29"/>
       <c r="P27" s="29"/>
       <c r="Q27" s="29"/>
       <c r="R27" s="29"/>
       <c r="S27" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T27" s="17" t="s">
         <v>56</v>
@@ -11147,17 +11159,17 @@
     </row>
     <row r="28" spans="5:32">
       <c r="M28" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N28" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O28" s="30"/>
       <c r="P28" s="30"/>
       <c r="Q28" s="30"/>
       <c r="R28" s="30"/>
       <c r="S28" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T28" s="17" t="s">
         <v>56</v>
@@ -11169,17 +11181,17 @@
     </row>
     <row r="29" spans="5:32">
       <c r="M29" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N29" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O29" s="29"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="29"/>
       <c r="R29" s="29"/>
       <c r="S29" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T29" s="17" t="s">
         <v>56</v>
@@ -11191,20 +11203,20 @@
     </row>
     <row r="30" spans="5:32">
       <c r="M30" s="37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N30" s="38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O30" s="39"/>
       <c r="P30" s="39"/>
       <c r="Q30" s="39"/>
       <c r="R30" s="39"/>
       <c r="S30" s="40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T30" s="38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U30" s="39"/>
       <c r="V30" s="39"/>
@@ -11213,13 +11225,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -11230,6 +11235,13 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:Q3 S2:AC3">
     <cfRule type="expression" dxfId="32" priority="5">
@@ -11268,40 +11280,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
@@ -11312,7 +11324,7 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="48">
+      <c r="A2" s="57">
         <v>46082</v>
       </c>
       <c r="B2" s="21">
@@ -11439,19 +11451,19 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AH2" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AL2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
+      <c r="AH2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AL2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="21" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>SU</v>
@@ -11950,7 +11962,7 @@
       </c>
       <c r="AL6" s="6">
         <f>FEB!AK6</f>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AM6" s="15">
         <f t="shared" si="5"/>
@@ -11958,7 +11970,7 @@
       </c>
       <c r="AN6" s="15">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="15" customHeight="1">
@@ -12194,7 +12206,7 @@
       </c>
       <c r="AL8" s="6">
         <f>FEB!AK8</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM8" s="15">
         <f t="shared" si="5"/>
@@ -12202,7 +12214,7 @@
       </c>
       <c r="AN8" s="15">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1">
@@ -12316,7 +12328,7 @@
       </c>
       <c r="AL9" s="6">
         <f>FEB!AK9</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM9" s="15">
         <f t="shared" si="5"/>
@@ -12324,7 +12336,7 @@
       </c>
       <c r="AN9" s="15">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:40" s="16" customFormat="1" ht="15" customHeight="1">
@@ -12562,7 +12574,7 @@
       </c>
       <c r="AL11" s="6">
         <f>FEB!AK11</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AM11" s="15">
         <f>COUNTIF(B11:AF11,"U")</f>
@@ -12570,7 +12582,7 @@
       </c>
       <c r="AN11" s="15">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:40">
@@ -12834,14 +12846,14 @@
     <row r="15" spans="1:40" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:40">
       <c r="E16" s="42"/>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55" t="s">
+      <c r="G16" s="59"/>
+      <c r="H16" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="I16" s="47"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
@@ -12862,28 +12874,28 @@
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="58" t="s">
+      <c r="Z16" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51" t="s">
+      <c r="G17" s="58"/>
+      <c r="H17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="I17" s="49"/>
       <c r="M17" s="11" t="s">
         <v>35</v>
       </c>
@@ -12904,26 +12916,26 @@
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="57"/>
+      <c r="I18" s="51"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -12944,26 +12956,26 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="57"/>
+      <c r="I19" s="51"/>
       <c r="M19" s="31" t="s">
         <v>18</v>
       </c>
@@ -12989,14 +13001,14 @@
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="57"/>
+      <c r="I20" s="51"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -13022,14 +13034,14 @@
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="55"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -13119,17 +13131,17 @@
     </row>
     <row r="25" spans="5:32">
       <c r="M25" s="34" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="N25" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
       <c r="R25" s="29"/>
       <c r="S25" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T25" s="17" t="s">
         <v>56</v>
@@ -13141,17 +13153,17 @@
     </row>
     <row r="26" spans="5:32">
       <c r="M26" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N26" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O26" s="29"/>
       <c r="P26" s="29"/>
       <c r="Q26" s="29"/>
       <c r="R26" s="29"/>
       <c r="S26" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T26" s="17" t="s">
         <v>56</v>
@@ -13163,17 +13175,17 @@
     </row>
     <row r="27" spans="5:32">
       <c r="M27" s="36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N27" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O27" s="29"/>
       <c r="P27" s="29"/>
       <c r="Q27" s="29"/>
       <c r="R27" s="29"/>
       <c r="S27" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T27" s="17" t="s">
         <v>56</v>
@@ -13185,17 +13197,17 @@
     </row>
     <row r="28" spans="5:32">
       <c r="M28" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N28" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O28" s="30"/>
       <c r="P28" s="30"/>
       <c r="Q28" s="30"/>
       <c r="R28" s="30"/>
       <c r="S28" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T28" s="17" t="s">
         <v>56</v>
@@ -13207,17 +13219,17 @@
     </row>
     <row r="29" spans="5:32">
       <c r="M29" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N29" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O29" s="29"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="29"/>
       <c r="R29" s="29"/>
       <c r="S29" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T29" s="17" t="s">
         <v>56</v>
@@ -13229,20 +13241,20 @@
     </row>
     <row r="30" spans="5:32">
       <c r="M30" s="37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N30" s="38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O30" s="39"/>
       <c r="P30" s="39"/>
       <c r="Q30" s="39"/>
       <c r="R30" s="39"/>
       <c r="S30" s="40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T30" s="38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U30" s="39"/>
       <c r="V30" s="39"/>
@@ -13251,13 +13263,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="AL2:AN2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -13268,6 +13273,13 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:AF3">
     <cfRule type="expression" dxfId="29" priority="5">
@@ -13293,7 +13305,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="AG25" sqref="AG25"/>
+      <selection pane="bottomRight" activeCell="AB27" sqref="AB27"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -13306,39 +13318,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
       <c r="AF1" s="12"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
@@ -13349,7 +13361,7 @@
       <c r="AM1" s="12"/>
     </row>
     <row r="2" spans="1:39" ht="15" customHeight="1">
-      <c r="A2" s="48">
+      <c r="A2" s="57">
         <v>46113</v>
       </c>
       <c r="B2" s="21">
@@ -13472,19 +13484,19 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AG2" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
-      <c r="AK2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
+      <c r="AG2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AK2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
     </row>
     <row r="3" spans="1:39" ht="15" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="21" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>WE</v>
@@ -13664,20 +13676,20 @@
       <c r="M4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>10</v>
+      <c r="N4" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="31" t="s">
+        <v>18</v>
       </c>
       <c r="S4" s="14" t="s">
         <v>8</v>
@@ -13685,17 +13697,17 @@
       <c r="T4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>10</v>
+      <c r="U4" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="V4" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="W4" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="X4" s="31" t="s">
+        <v>18</v>
       </c>
       <c r="Y4" s="33" t="s">
         <v>20</v>
@@ -13724,11 +13736,11 @@
       </c>
       <c r="AH4" s="15">
         <f>COUNTIF(B4:AE4,"UA")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI4" s="15">
         <f t="shared" ref="AI4:AI11" si="2">AG4-AH4</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="6">
         <f>MAR!AN4</f>
@@ -13736,11 +13748,11 @@
       </c>
       <c r="AL4" s="15">
         <f>COUNTIF(B4:AE4,"U")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AM4" s="15">
         <f t="shared" ref="AM4:AM11" si="3">AK4-AL4</f>
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="15" customHeight="1">
@@ -13970,7 +13982,7 @@
       </c>
       <c r="AK6" s="6">
         <f>MAR!AN6</f>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AL6" s="15">
         <f t="shared" si="5"/>
@@ -13978,7 +13990,7 @@
       </c>
       <c r="AM6" s="15">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:39" ht="15" customHeight="1">
@@ -14208,7 +14220,7 @@
       </c>
       <c r="AK8" s="6">
         <f>MAR!AN8</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL8" s="15">
         <f t="shared" si="5"/>
@@ -14216,7 +14228,7 @@
       </c>
       <c r="AM8" s="15">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:39" ht="15" customHeight="1">
@@ -14327,7 +14339,7 @@
       </c>
       <c r="AK9" s="6">
         <f>MAR!AN9</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL9" s="15">
         <f t="shared" si="5"/>
@@ -14335,7 +14347,7 @@
       </c>
       <c r="AM9" s="15">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:39" s="16" customFormat="1" ht="15" customHeight="1">
@@ -14567,7 +14579,7 @@
       </c>
       <c r="AK11" s="6">
         <f>MAR!AN11</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AL11" s="15">
         <f>COUNTIF(B11:AE11,"U")</f>
@@ -14575,7 +14587,7 @@
       </c>
       <c r="AM11" s="15">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -14831,14 +14843,14 @@
     <row r="15" spans="1:39" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:39">
       <c r="E16" s="42"/>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55" t="s">
+      <c r="G16" s="59"/>
+      <c r="H16" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="I16" s="47"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
@@ -14859,28 +14871,28 @@
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="58" t="s">
+      <c r="Z16" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51" t="s">
+      <c r="G17" s="58"/>
+      <c r="H17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="I17" s="49"/>
       <c r="M17" s="11" t="s">
         <v>35</v>
       </c>
@@ -14901,26 +14913,26 @@
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="57"/>
+      <c r="I18" s="51"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -14941,26 +14953,26 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="57"/>
+      <c r="I19" s="51"/>
       <c r="M19" s="31" t="s">
         <v>18</v>
       </c>
@@ -14986,14 +14998,14 @@
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="57"/>
+      <c r="I20" s="51"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -15019,14 +15031,14 @@
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="55"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -15116,17 +15128,17 @@
     </row>
     <row r="25" spans="5:32">
       <c r="M25" s="34" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="N25" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
       <c r="R25" s="29"/>
       <c r="S25" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T25" s="17" t="s">
         <v>56</v>
@@ -15138,17 +15150,17 @@
     </row>
     <row r="26" spans="5:32">
       <c r="M26" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N26" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O26" s="29"/>
       <c r="P26" s="29"/>
       <c r="Q26" s="29"/>
       <c r="R26" s="29"/>
       <c r="S26" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T26" s="17" t="s">
         <v>56</v>
@@ -15160,17 +15172,17 @@
     </row>
     <row r="27" spans="5:32">
       <c r="M27" s="36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N27" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O27" s="29"/>
       <c r="P27" s="29"/>
       <c r="Q27" s="29"/>
       <c r="R27" s="29"/>
       <c r="S27" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T27" s="17" t="s">
         <v>56</v>
@@ -15182,17 +15194,17 @@
     </row>
     <row r="28" spans="5:32">
       <c r="M28" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N28" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O28" s="30"/>
       <c r="P28" s="30"/>
       <c r="Q28" s="30"/>
       <c r="R28" s="30"/>
       <c r="S28" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T28" s="17" t="s">
         <v>56</v>
@@ -15204,17 +15216,17 @@
     </row>
     <row r="29" spans="5:32">
       <c r="M29" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N29" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O29" s="29"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="29"/>
       <c r="R29" s="29"/>
       <c r="S29" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T29" s="17" t="s">
         <v>56</v>
@@ -15226,20 +15238,20 @@
     </row>
     <row r="30" spans="5:32">
       <c r="M30" s="37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N30" s="38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O30" s="39"/>
       <c r="P30" s="39"/>
       <c r="Q30" s="39"/>
       <c r="R30" s="39"/>
       <c r="S30" s="40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T30" s="38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U30" s="39"/>
       <c r="V30" s="39"/>
@@ -15248,13 +15260,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -15265,6 +15270,13 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:C3 E2:E3 G2:Y3 AA2:AE3">
     <cfRule type="expression" dxfId="26" priority="3">
@@ -15303,47 +15315,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
       <c r="AJ1" s="12"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="48">
+      <c r="A2" s="57">
         <v>46143</v>
       </c>
       <c r="B2" s="23">
@@ -15470,14 +15482,14 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AH2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
+      <c r="AH2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="23" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>FR</v>
@@ -15711,7 +15723,7 @@
       </c>
       <c r="AH4" s="6">
         <f>APR!AM4</f>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AI4" s="15">
         <f>COUNTIF(B4:AF4,"U")</f>
@@ -15719,7 +15731,7 @@
       </c>
       <c r="AJ4" s="15">
         <f t="shared" ref="AJ4:AJ11" si="8">AH4-AI4</f>
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="15" customHeight="1">
@@ -15931,7 +15943,7 @@
       </c>
       <c r="AH6" s="6">
         <f>APR!AM6</f>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AI6" s="15">
         <f t="shared" si="9"/>
@@ -15939,7 +15951,7 @@
       </c>
       <c r="AJ6" s="15">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="15" customHeight="1">
@@ -16151,7 +16163,7 @@
       </c>
       <c r="AH8" s="6">
         <f>APR!AM8</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI8" s="15">
         <f t="shared" si="9"/>
@@ -16159,7 +16171,7 @@
       </c>
       <c r="AJ8" s="15">
         <f t="shared" si="8"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="15" customHeight="1">
@@ -16261,7 +16273,7 @@
       </c>
       <c r="AH9" s="6">
         <f>APR!AM9</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI9" s="15">
         <f t="shared" si="9"/>
@@ -16269,7 +16281,7 @@
       </c>
       <c r="AJ9" s="15">
         <f t="shared" si="8"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:36" s="16" customFormat="1" ht="15" customHeight="1">
@@ -16482,7 +16494,7 @@
       </c>
       <c r="AH11" s="6">
         <f>APR!AM11</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AI11" s="15">
         <f>COUNTIF(B11:AF11,"U")</f>
@@ -16490,7 +16502,7 @@
       </c>
       <c r="AJ11" s="15">
         <f t="shared" si="8"/>
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -16754,14 +16766,14 @@
     <row r="15" spans="1:36" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:36">
       <c r="E16" s="42"/>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55" t="s">
+      <c r="G16" s="59"/>
+      <c r="H16" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="I16" s="47"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
@@ -16782,28 +16794,28 @@
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="58" t="s">
+      <c r="Z16" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51" t="s">
+      <c r="G17" s="58"/>
+      <c r="H17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="I17" s="49"/>
       <c r="M17" s="11" t="s">
         <v>35</v>
       </c>
@@ -16824,26 +16836,26 @@
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="57"/>
+      <c r="I18" s="51"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -16864,26 +16876,26 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="57"/>
+      <c r="I19" s="51"/>
       <c r="M19" s="31" t="s">
         <v>18</v>
       </c>
@@ -16909,14 +16921,14 @@
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="57"/>
+      <c r="I20" s="51"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -16942,14 +16954,14 @@
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="55"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -17039,17 +17051,17 @@
     </row>
     <row r="25" spans="5:32">
       <c r="M25" s="34" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="N25" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
       <c r="R25" s="29"/>
       <c r="S25" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T25" s="17" t="s">
         <v>56</v>
@@ -17061,17 +17073,17 @@
     </row>
     <row r="26" spans="5:32">
       <c r="M26" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N26" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O26" s="29"/>
       <c r="P26" s="29"/>
       <c r="Q26" s="29"/>
       <c r="R26" s="29"/>
       <c r="S26" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T26" s="17" t="s">
         <v>56</v>
@@ -17083,17 +17095,17 @@
     </row>
     <row r="27" spans="5:32">
       <c r="M27" s="36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N27" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O27" s="29"/>
       <c r="P27" s="29"/>
       <c r="Q27" s="29"/>
       <c r="R27" s="29"/>
       <c r="S27" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T27" s="17" t="s">
         <v>56</v>
@@ -17105,17 +17117,17 @@
     </row>
     <row r="28" spans="5:32">
       <c r="M28" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N28" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O28" s="30"/>
       <c r="P28" s="30"/>
       <c r="Q28" s="30"/>
       <c r="R28" s="30"/>
       <c r="S28" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T28" s="17" t="s">
         <v>56</v>
@@ -17127,17 +17139,17 @@
     </row>
     <row r="29" spans="5:32">
       <c r="M29" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N29" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O29" s="29"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="29"/>
       <c r="R29" s="29"/>
       <c r="S29" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T29" s="17" t="s">
         <v>56</v>
@@ -17149,20 +17161,20 @@
     </row>
     <row r="30" spans="5:32">
       <c r="M30" s="37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N30" s="38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O30" s="39"/>
       <c r="P30" s="39"/>
       <c r="Q30" s="39"/>
       <c r="R30" s="39"/>
       <c r="S30" s="40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T30" s="38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U30" s="39"/>
       <c r="V30" s="39"/>
@@ -17171,12 +17183,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -17187,6 +17193,12 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B13:AF14">
     <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
@@ -17225,46 +17237,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
       <c r="AF1" s="12"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
     </row>
     <row r="2" spans="1:35" ht="15" customHeight="1">
-      <c r="A2" s="48">
+      <c r="A2" s="57">
         <v>46174</v>
       </c>
       <c r="B2" s="21">
@@ -17387,14 +17399,14 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AG2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
+      <c r="AG2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="21" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>MO</v>
@@ -17621,7 +17633,7 @@
       </c>
       <c r="AG4" s="6">
         <f>MAY!AJ4</f>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AH4" s="15">
         <f>COUNTIF(B4:AE4,"U")</f>
@@ -17629,7 +17641,7 @@
       </c>
       <c r="AI4" s="15">
         <f t="shared" ref="AI4:AI11" si="2">AG4-AH4</f>
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="15" customHeight="1">
@@ -17835,7 +17847,7 @@
       </c>
       <c r="AG6" s="6">
         <f>MAY!AJ6</f>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AH6" s="15">
         <f t="shared" si="3"/>
@@ -17843,7 +17855,7 @@
       </c>
       <c r="AI6" s="15">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="15" customHeight="1">
@@ -18049,7 +18061,7 @@
       </c>
       <c r="AG8" s="6">
         <f>MAY!AJ8</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH8" s="15">
         <f t="shared" si="3"/>
@@ -18057,7 +18069,7 @@
       </c>
       <c r="AI8" s="15">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="15" customHeight="1">
@@ -18156,7 +18168,7 @@
       </c>
       <c r="AG9" s="6">
         <f>MAY!AJ9</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH9" s="15">
         <f t="shared" si="3"/>
@@ -18164,7 +18176,7 @@
       </c>
       <c r="AI9" s="15">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1">
@@ -18371,7 +18383,7 @@
       </c>
       <c r="AG11" s="6">
         <f>MAY!AJ11</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AH11" s="15">
         <f>COUNTIF(B11:AE11,"U")</f>
@@ -18379,7 +18391,7 @@
       </c>
       <c r="AI11" s="15">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -18635,14 +18647,14 @@
     <row r="15" spans="1:35" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:35">
       <c r="E16" s="42"/>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55" t="s">
+      <c r="G16" s="59"/>
+      <c r="H16" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="I16" s="47"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
@@ -18663,28 +18675,28 @@
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="58" t="s">
+      <c r="Z16" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51" t="s">
+      <c r="G17" s="58"/>
+      <c r="H17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="I17" s="49"/>
       <c r="M17" s="11" t="s">
         <v>35</v>
       </c>
@@ -18705,26 +18717,26 @@
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="57"/>
+      <c r="I18" s="51"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -18745,26 +18757,26 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="57"/>
+      <c r="I19" s="51"/>
       <c r="M19" s="31" t="s">
         <v>18</v>
       </c>
@@ -18790,14 +18802,14 @@
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="57"/>
+      <c r="I20" s="51"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -18823,14 +18835,14 @@
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="55"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -18920,17 +18932,17 @@
     </row>
     <row r="25" spans="5:32">
       <c r="M25" s="34" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="N25" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
       <c r="R25" s="29"/>
       <c r="S25" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T25" s="17" t="s">
         <v>56</v>
@@ -18942,17 +18954,17 @@
     </row>
     <row r="26" spans="5:32">
       <c r="M26" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N26" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O26" s="29"/>
       <c r="P26" s="29"/>
       <c r="Q26" s="29"/>
       <c r="R26" s="29"/>
       <c r="S26" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T26" s="17" t="s">
         <v>56</v>
@@ -18964,17 +18976,17 @@
     </row>
     <row r="27" spans="5:32">
       <c r="M27" s="36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N27" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O27" s="29"/>
       <c r="P27" s="29"/>
       <c r="Q27" s="29"/>
       <c r="R27" s="29"/>
       <c r="S27" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T27" s="17" t="s">
         <v>56</v>
@@ -18986,17 +18998,17 @@
     </row>
     <row r="28" spans="5:32">
       <c r="M28" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N28" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O28" s="30"/>
       <c r="P28" s="30"/>
       <c r="Q28" s="30"/>
       <c r="R28" s="30"/>
       <c r="S28" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T28" s="17" t="s">
         <v>56</v>
@@ -19008,17 +19020,17 @@
     </row>
     <row r="29" spans="5:32">
       <c r="M29" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N29" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O29" s="29"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="29"/>
       <c r="R29" s="29"/>
       <c r="S29" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T29" s="17" t="s">
         <v>56</v>
@@ -19030,20 +19042,20 @@
     </row>
     <row r="30" spans="5:32">
       <c r="M30" s="37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N30" s="38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O30" s="39"/>
       <c r="P30" s="39"/>
       <c r="Q30" s="39"/>
       <c r="R30" s="39"/>
       <c r="S30" s="40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T30" s="38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U30" s="39"/>
       <c r="V30" s="39"/>
@@ -19052,12 +19064,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -19068,6 +19074,12 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:D3 F2:J3 L2:X3 Z2:AE3">
     <cfRule type="expression" dxfId="20" priority="3">
@@ -19106,47 +19118,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
       <c r="AJ1" s="12"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="48">
+      <c r="A2" s="57">
         <v>46204</v>
       </c>
       <c r="B2" s="21">
@@ -19273,14 +19285,14 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AH2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
+      <c r="AH2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="21" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>WE</v>
@@ -19514,7 +19526,7 @@
       </c>
       <c r="AH4" s="6">
         <f>JUN!AI4</f>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AI4" s="15">
         <f>COUNTIF(B4:AF4,"U")</f>
@@ -19522,7 +19534,7 @@
       </c>
       <c r="AJ4" s="15">
         <f t="shared" ref="AJ4:AJ11" si="2">AH4-AI4</f>
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="15" customHeight="1">
@@ -19734,7 +19746,7 @@
       </c>
       <c r="AH6" s="6">
         <f>JUN!AI6</f>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AI6" s="15">
         <f t="shared" si="3"/>
@@ -19742,7 +19754,7 @@
       </c>
       <c r="AJ6" s="15">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="15" customHeight="1">
@@ -19954,7 +19966,7 @@
       </c>
       <c r="AH8" s="6">
         <f>JUN!AI8</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI8" s="15">
         <f t="shared" si="3"/>
@@ -19962,7 +19974,7 @@
       </c>
       <c r="AJ8" s="15">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="15" customHeight="1">
@@ -20064,7 +20076,7 @@
       </c>
       <c r="AH9" s="6">
         <f>JUN!AI9</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI9" s="15">
         <f t="shared" si="3"/>
@@ -20072,7 +20084,7 @@
       </c>
       <c r="AJ9" s="15">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:36" s="16" customFormat="1" ht="15" customHeight="1">
@@ -20285,7 +20297,7 @@
       </c>
       <c r="AH11" s="6">
         <f>JUN!AI11</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AI11" s="15">
         <f>COUNTIF(B11:AF11,"U")</f>
@@ -20293,7 +20305,7 @@
       </c>
       <c r="AJ11" s="15">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -20557,14 +20569,14 @@
     <row r="15" spans="1:36" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:36">
       <c r="E16" s="42"/>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55" t="s">
+      <c r="G16" s="59"/>
+      <c r="H16" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="I16" s="47"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
@@ -20585,28 +20597,28 @@
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="58" t="s">
+      <c r="Z16" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51" t="s">
+      <c r="G17" s="58"/>
+      <c r="H17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="I17" s="49"/>
       <c r="M17" s="11" t="s">
         <v>35</v>
       </c>
@@ -20627,26 +20639,26 @@
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="57"/>
+      <c r="I18" s="51"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -20667,26 +20679,26 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="57"/>
+      <c r="I19" s="51"/>
       <c r="M19" s="31" t="s">
         <v>18</v>
       </c>
@@ -20712,14 +20724,14 @@
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="57"/>
+      <c r="I20" s="51"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -20745,14 +20757,14 @@
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="55"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -20842,17 +20854,17 @@
     </row>
     <row r="25" spans="5:32">
       <c r="M25" s="34" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="N25" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
       <c r="R25" s="29"/>
       <c r="S25" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T25" s="17" t="s">
         <v>56</v>
@@ -20864,17 +20876,17 @@
     </row>
     <row r="26" spans="5:32">
       <c r="M26" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N26" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O26" s="29"/>
       <c r="P26" s="29"/>
       <c r="Q26" s="29"/>
       <c r="R26" s="29"/>
       <c r="S26" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T26" s="17" t="s">
         <v>56</v>
@@ -20886,17 +20898,17 @@
     </row>
     <row r="27" spans="5:32">
       <c r="M27" s="36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N27" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O27" s="29"/>
       <c r="P27" s="29"/>
       <c r="Q27" s="29"/>
       <c r="R27" s="29"/>
       <c r="S27" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T27" s="17" t="s">
         <v>56</v>
@@ -20908,17 +20920,17 @@
     </row>
     <row r="28" spans="5:32">
       <c r="M28" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N28" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O28" s="30"/>
       <c r="P28" s="30"/>
       <c r="Q28" s="30"/>
       <c r="R28" s="30"/>
       <c r="S28" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T28" s="17" t="s">
         <v>56</v>
@@ -20930,17 +20942,17 @@
     </row>
     <row r="29" spans="5:32">
       <c r="M29" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N29" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O29" s="29"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="29"/>
       <c r="R29" s="29"/>
       <c r="S29" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T29" s="17" t="s">
         <v>56</v>
@@ -20952,20 +20964,20 @@
     </row>
     <row r="30" spans="5:32">
       <c r="M30" s="37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N30" s="38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O30" s="39"/>
       <c r="P30" s="39"/>
       <c r="Q30" s="39"/>
       <c r="R30" s="39"/>
       <c r="S30" s="40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T30" s="38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U30" s="39"/>
       <c r="V30" s="39"/>
@@ -20974,12 +20986,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -20990,6 +20996,12 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:AF3">
     <cfRule type="expression" dxfId="17" priority="3">
@@ -21028,47 +21040,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
       <c r="AJ1" s="12"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="48">
+      <c r="A2" s="57">
         <v>46235</v>
       </c>
       <c r="B2" s="21">
@@ -21195,14 +21207,14 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AH2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
+      <c r="AH2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="21" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>SA</v>
@@ -21436,7 +21448,7 @@
       </c>
       <c r="AH4" s="6">
         <f>JUL!AJ4</f>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AI4" s="15">
         <f>COUNTIF(B4:AF4,"U")</f>
@@ -21444,7 +21456,7 @@
       </c>
       <c r="AJ4" s="15">
         <f t="shared" ref="AJ4:AJ11" si="2">AH4-AI4</f>
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="15" customHeight="1">
@@ -21656,7 +21668,7 @@
       </c>
       <c r="AH6" s="6">
         <f>JUL!AJ6</f>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AI6" s="15">
         <f t="shared" si="3"/>
@@ -21664,7 +21676,7 @@
       </c>
       <c r="AJ6" s="15">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="15" customHeight="1">
@@ -21876,7 +21888,7 @@
       </c>
       <c r="AH8" s="6">
         <f>JUL!AJ8</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI8" s="15">
         <f t="shared" si="3"/>
@@ -21884,7 +21896,7 @@
       </c>
       <c r="AJ8" s="15">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="15" customHeight="1">
@@ -21986,7 +21998,7 @@
       </c>
       <c r="AH9" s="6">
         <f>JUL!AJ9</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI9" s="15">
         <f t="shared" si="3"/>
@@ -21994,7 +22006,7 @@
       </c>
       <c r="AJ9" s="15">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:36" s="16" customFormat="1" ht="15" customHeight="1">
@@ -22207,7 +22219,7 @@
       </c>
       <c r="AH11" s="6">
         <f>JUL!AJ11</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AI11" s="15">
         <f>COUNTIF(B11:AF11,"U")</f>
@@ -22215,7 +22227,7 @@
       </c>
       <c r="AJ11" s="15">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -22479,14 +22491,14 @@
     <row r="15" spans="1:36" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:36">
       <c r="E16" s="42"/>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55" t="s">
+      <c r="G16" s="59"/>
+      <c r="H16" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="I16" s="47"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
@@ -22507,28 +22519,28 @@
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="58" t="s">
+      <c r="Z16" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51" t="s">
+      <c r="G17" s="58"/>
+      <c r="H17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="I17" s="49"/>
       <c r="M17" s="11" t="s">
         <v>35</v>
       </c>
@@ -22549,26 +22561,26 @@
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="57"/>
+      <c r="I18" s="51"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -22589,26 +22601,26 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="57"/>
+      <c r="I19" s="51"/>
       <c r="M19" s="31" t="s">
         <v>18</v>
       </c>
@@ -22634,14 +22646,14 @@
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="57"/>
+      <c r="I20" s="51"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -22667,14 +22679,14 @@
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="55"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -22764,17 +22776,17 @@
     </row>
     <row r="25" spans="5:32">
       <c r="M25" s="34" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="N25" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
       <c r="R25" s="29"/>
       <c r="S25" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T25" s="17" t="s">
         <v>56</v>
@@ -22786,17 +22798,17 @@
     </row>
     <row r="26" spans="5:32">
       <c r="M26" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N26" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O26" s="29"/>
       <c r="P26" s="29"/>
       <c r="Q26" s="29"/>
       <c r="R26" s="29"/>
       <c r="S26" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T26" s="17" t="s">
         <v>56</v>
@@ -22808,17 +22820,17 @@
     </row>
     <row r="27" spans="5:32">
       <c r="M27" s="36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N27" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O27" s="29"/>
       <c r="P27" s="29"/>
       <c r="Q27" s="29"/>
       <c r="R27" s="29"/>
       <c r="S27" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T27" s="17" t="s">
         <v>56</v>
@@ -22830,17 +22842,17 @@
     </row>
     <row r="28" spans="5:32">
       <c r="M28" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N28" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O28" s="30"/>
       <c r="P28" s="30"/>
       <c r="Q28" s="30"/>
       <c r="R28" s="30"/>
       <c r="S28" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T28" s="17" t="s">
         <v>56</v>
@@ -22852,17 +22864,17 @@
     </row>
     <row r="29" spans="5:32">
       <c r="M29" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N29" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O29" s="29"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="29"/>
       <c r="R29" s="29"/>
       <c r="S29" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T29" s="17" t="s">
         <v>56</v>
@@ -22874,20 +22886,20 @@
     </row>
     <row r="30" spans="5:32">
       <c r="M30" s="37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N30" s="38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O30" s="39"/>
       <c r="P30" s="39"/>
       <c r="Q30" s="39"/>
       <c r="R30" s="39"/>
       <c r="S30" s="40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T30" s="38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U30" s="39"/>
       <c r="V30" s="39"/>
@@ -22896,12 +22908,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -22912,6 +22918,12 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:O3 Q2:AF3">
     <cfRule type="expression" dxfId="14" priority="3">
@@ -22950,46 +22962,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
       <c r="AF1" s="12"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
     </row>
     <row r="2" spans="1:35" ht="15" customHeight="1">
-      <c r="A2" s="48">
+      <c r="A2" s="57">
         <v>46266</v>
       </c>
       <c r="B2" s="21">
@@ -23112,14 +23124,14 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AG2" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
+      <c r="AG2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="21" t="str">
         <f>UPPER(LEFT(TEXT(DATE(YEAR($A$2),MONTH($A$2),B2),"DDD"),2))</f>
         <v>TU</v>
@@ -23346,7 +23358,7 @@
       </c>
       <c r="AG4" s="6">
         <f>AUG!AJ4</f>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AH4" s="15">
         <f>COUNTIF(B4:AE4,"U")</f>
@@ -23354,7 +23366,7 @@
       </c>
       <c r="AI4" s="15">
         <f t="shared" ref="AI4:AI11" si="2">AG4-AH4</f>
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="15" customHeight="1">
@@ -23560,7 +23572,7 @@
       </c>
       <c r="AG6" s="6">
         <f>AUG!AJ6</f>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AH6" s="15">
         <f t="shared" si="3"/>
@@ -23568,7 +23580,7 @@
       </c>
       <c r="AI6" s="15">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="15" customHeight="1">
@@ -23774,7 +23786,7 @@
       </c>
       <c r="AG8" s="6">
         <f>AUG!AJ8</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH8" s="15">
         <f t="shared" si="3"/>
@@ -23782,7 +23794,7 @@
       </c>
       <c r="AI8" s="15">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="15" customHeight="1">
@@ -23881,7 +23893,7 @@
       </c>
       <c r="AG9" s="6">
         <f>AUG!AJ9</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH9" s="15">
         <f t="shared" si="3"/>
@@ -23889,7 +23901,7 @@
       </c>
       <c r="AI9" s="15">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:35" s="16" customFormat="1" ht="15" customHeight="1">
@@ -24096,7 +24108,7 @@
       </c>
       <c r="AG11" s="6">
         <f>AUG!AJ11</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AH11" s="15">
         <f>COUNTIF(B11:AE11,"U")</f>
@@ -24104,7 +24116,7 @@
       </c>
       <c r="AI11" s="15">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -24360,14 +24372,14 @@
     <row r="15" spans="1:35" ht="13.5" thickBot="1"/>
     <row r="16" spans="1:35">
       <c r="E16" s="42"/>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="55" t="s">
+      <c r="G16" s="59"/>
+      <c r="H16" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="I16" s="47"/>
       <c r="M16" s="6" t="s">
         <v>8</v>
       </c>
@@ -24388,28 +24400,28 @@
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
       <c r="X16" s="28"/>
-      <c r="Z16" s="58" t="s">
+      <c r="Z16" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
     </row>
     <row r="17" spans="5:32">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51" t="s">
+      <c r="G17" s="58"/>
+      <c r="H17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="I17" s="49"/>
       <c r="M17" s="11" t="s">
         <v>35</v>
       </c>
@@ -24430,26 +24442,26 @@
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
       <c r="X17" s="19"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
     </row>
     <row r="18" spans="5:32">
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="53" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="57"/>
+      <c r="I18" s="51"/>
       <c r="M18" s="23" t="s">
         <v>6</v>
       </c>
@@ -24470,26 +24482,26 @@
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="19"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
     </row>
     <row r="19" spans="5:32">
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="53" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="57"/>
+      <c r="I19" s="51"/>
       <c r="M19" s="31" t="s">
         <v>18</v>
       </c>
@@ -24515,14 +24527,14 @@
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="53" t="s">
+      <c r="G20" s="52"/>
+      <c r="H20" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="57"/>
+      <c r="I20" s="51"/>
       <c r="M20" s="31" t="s">
         <v>7</v>
       </c>
@@ -24548,14 +24560,14 @@
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="54"/>
+      <c r="H21" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="55"/>
       <c r="M21" s="32" t="s">
         <v>6</v>
       </c>
@@ -24645,17 +24657,17 @@
     </row>
     <row r="25" spans="5:32">
       <c r="M25" s="34" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="N25" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
       <c r="R25" s="29"/>
       <c r="S25" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T25" s="17" t="s">
         <v>56</v>
@@ -24667,17 +24679,17 @@
     </row>
     <row r="26" spans="5:32">
       <c r="M26" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N26" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O26" s="29"/>
       <c r="P26" s="29"/>
       <c r="Q26" s="29"/>
       <c r="R26" s="29"/>
       <c r="S26" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T26" s="17" t="s">
         <v>56</v>
@@ -24689,17 +24701,17 @@
     </row>
     <row r="27" spans="5:32">
       <c r="M27" s="36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N27" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O27" s="29"/>
       <c r="P27" s="29"/>
       <c r="Q27" s="29"/>
       <c r="R27" s="29"/>
       <c r="S27" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T27" s="17" t="s">
         <v>56</v>
@@ -24711,17 +24723,17 @@
     </row>
     <row r="28" spans="5:32">
       <c r="M28" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N28" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O28" s="30"/>
       <c r="P28" s="30"/>
       <c r="Q28" s="30"/>
       <c r="R28" s="30"/>
       <c r="S28" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T28" s="17" t="s">
         <v>56</v>
@@ -24733,17 +24745,17 @@
     </row>
     <row r="29" spans="5:32">
       <c r="M29" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N29" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O29" s="29"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="29"/>
       <c r="R29" s="29"/>
       <c r="S29" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T29" s="17" t="s">
         <v>56</v>
@@ -24755,20 +24767,20 @@
     </row>
     <row r="30" spans="5:32">
       <c r="M30" s="37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N30" s="38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O30" s="39"/>
       <c r="P30" s="39"/>
       <c r="Q30" s="39"/>
       <c r="R30" s="39"/>
       <c r="S30" s="40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T30" s="38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U30" s="39"/>
       <c r="V30" s="39"/>
@@ -24777,12 +24789,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="Z16:AF18"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="F21:G21"/>
@@ -24793,6 +24799,12 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="Z16:AF18"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:AE3">
     <cfRule type="expression" dxfId="11" priority="3">
@@ -25054,6 +25066,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="fa453329-a4c9-4120-b786-6a0f9fa17d90">
@@ -25106,25 +25127,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29B84BB2-0D53-4A94-BCB9-BA0A420A2CD1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25036EC1-2728-4BE7-AC17-163F56A6F287}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AED20691-38BD-4744-A2B0-0BB0E052B916}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AED20691-38BD-4744-A2B0-0BB0E052B916}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25036EC1-2728-4BE7-AC17-163F56A6F287}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
